--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -2105,7 +2105,7 @@
     <t>iam_menu-9</t>
   </si>
   <si>
-    <t>choerodon.code.organization.konwledge</t>
+    <t>choerodon.code.organization.knowledge</t>
   </si>
   <si>
     <t>知识库</t>
@@ -2126,7 +2126,7 @@
     <t>iam_menu-10</t>
   </si>
   <si>
-    <t>choerodon.code.organization.konwledge.ps.default</t>
+    <t>choerodon.code.organization.knowledge.ps.default</t>
   </si>
   <si>
     <t>默认权限集</t>
@@ -2147,7 +2147,7 @@
     <t>iam_menu-11</t>
   </si>
   <si>
-    <t>choerodon.code.organization.konwledge.ps.doc</t>
+    <t>choerodon.code.organization.knowledge.ps.doc</t>
   </si>
   <si>
     <t>doc基础权限集</t>
@@ -2165,7 +2165,7 @@
     <t>iam_menu-12</t>
   </si>
   <si>
-    <t>choerodon.code.organization.konwledge.ps.doc.delete</t>
+    <t>choerodon.code.organization.knowledge.ps.doc.delete</t>
   </si>
   <si>
     <t>删除文档</t>
@@ -2177,7 +2177,7 @@
     <t>iam_menu-13</t>
   </si>
   <si>
-    <t>choerodon.code.organization.konwledge.ps.page_comment.delete</t>
+    <t>choerodon.code.organization.knowledge.ps.page_comment.delete</t>
   </si>
   <si>
     <t>删除评论</t>
@@ -2189,7 +2189,7 @@
     <t>iam_menu-14</t>
   </si>
   <si>
-    <t>choerodon.code.organization.konwledge.ps.recycle</t>
+    <t>choerodon.code.organization.knowledge.ps.recycle</t>
   </si>
   <si>
     <t>回收站删除和还原</t>
@@ -2201,7 +2201,7 @@
     <t>iam_menu-15</t>
   </si>
   <si>
-    <t>choerodon.code.organization.konwledge.ps.template.delete</t>
+    <t>choerodon.code.organization.knowledge.ps.template.delete</t>
   </si>
   <si>
     <t>删除文档模板</t>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -16,6 +16,7 @@
     <sheet name="菜单SAAS版" r:id="rId5" sheetId="2"/>
     <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
     <sheet name="菜单标签数据" r:id="rId7" sheetId="4"/>
+    <sheet name="角色" r:id="rId8" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="522">
   <si>
     <r>
       <rPr>
@@ -3105,6 +3106,312 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>iam_role</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>h_inherit_role_id</t>
+  </si>
+  <si>
+    <t>#h_parent_role_id</t>
+  </si>
+  <si>
+    <t>#h_parent_role_assign_level</t>
+  </si>
+  <si>
+    <t>h_parent_role_assign_level_val</t>
+  </si>
+  <si>
+    <t>is_enabled</t>
+  </si>
+  <si>
+    <t>is_modified</t>
+  </si>
+  <si>
+    <t>is_enable_forbidden</t>
+  </si>
+  <si>
+    <t>is_built_in</t>
+  </si>
+  <si>
+    <t>is_assignable</t>
+  </si>
+  <si>
+    <t>h_inherit_level_path</t>
+  </si>
+  <si>
+    <t>#created_by_tenant_id</t>
+  </si>
+  <si>
+    <t>tpl_role_name:zh_CN</t>
+  </si>
+  <si>
+    <t>tpl_role_name:en_US</t>
+  </si>
+  <si>
+    <t>iam_role-8</t>
+  </si>
+  <si>
+    <t>平台管理员</t>
+  </si>
+  <si>
+    <t>Site Administrator</t>
+  </si>
+  <si>
+    <t>role/site/default/administrator</t>
+  </si>
+  <si>
+    <t>abcf</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>iam_role-9</t>
+  </si>
+  <si>
+    <t>租户管理员</t>
+  </si>
+  <si>
+    <t>Organization Administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+  </si>
+  <si>
+    <t>abce</t>
+  </si>
+  <si>
+    <t>iam_role-10</t>
+  </si>
+  <si>
+    <t>租户管理员模板</t>
+  </si>
+  <si>
+    <t>Tenant admin template</t>
+  </si>
+  <si>
+    <t>role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>Tenant Admin</t>
+  </si>
+  <si>
+    <t>iam_role-11</t>
+  </si>
+  <si>
+    <t>租户成员模板</t>
+  </si>
+  <si>
+    <t>Organization Member template</t>
+  </si>
+  <si>
+    <t>role/organization/default/template/member</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/organization-member</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/organization/default/template/organization-member</t>
+  </si>
+  <si>
+    <t>租户成员</t>
+  </si>
+  <si>
+    <t>Organization Member</t>
+  </si>
+  <si>
+    <t>iam_role-12</t>
+  </si>
+  <si>
+    <t>项目管理员模板</t>
+  </si>
+  <si>
+    <t>Project Admin template</t>
+  </si>
+  <si>
+    <t>role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>项目管理员</t>
+  </si>
+  <si>
+    <t>Project Admin</t>
+  </si>
+  <si>
+    <t>iam_role-13</t>
+  </si>
+  <si>
+    <t>项目成员模板</t>
+  </si>
+  <si>
+    <t>Project member template</t>
+  </si>
+  <si>
+    <t>role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>项目成员</t>
+  </si>
+  <si>
+    <t>Project member</t>
+  </si>
+  <si>
+    <t>iam_role-14</t>
+  </si>
+  <si>
+    <t>平台开发者</t>
+  </si>
+  <si>
+    <t>Site Developer</t>
+  </si>
+  <si>
+    <t>role/site/default/developer</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/site/default/developer</t>
+  </si>
+  <si>
+    <t>角色权限</t>
+  </si>
+  <si>
+    <t>iam_role_permission</t>
+  </si>
+  <si>
+    <t>#role_id</t>
+  </si>
+  <si>
+    <t>#permission_id</t>
+  </si>
+  <si>
+    <t>h_create_flag</t>
+  </si>
+  <si>
+    <t>h_inherit_flag</t>
+  </si>
+  <si>
+    <t>iam_role_permission-17</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>iam_role_permission-18</t>
+  </si>
+  <si>
+    <t>iam_role_permission-19</t>
+  </si>
+  <si>
+    <t>iam_role_permission-20</t>
+  </si>
+  <si>
+    <t>iam_role_permission-21</t>
+  </si>
+  <si>
+    <t>iam_role_permission-22</t>
+  </si>
+  <si>
+    <t>iam_role_permission-23</t>
+  </si>
+  <si>
+    <t>iam_role_permission-24</t>
+  </si>
+  <si>
+    <t>iam_role_permission-25</t>
+  </si>
+  <si>
+    <t>iam_role_permission-26</t>
+  </si>
+  <si>
+    <t>iam_role_permission-27</t>
+  </si>
+  <si>
+    <t>iam_role_permission-28</t>
+  </si>
+  <si>
+    <t>iam_role_permission-29</t>
+  </si>
+  <si>
+    <t>iam_role_permission-30</t>
+  </si>
+  <si>
+    <t>iam_role_permission-31</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>iam_role_permission-32</t>
+  </si>
+  <si>
+    <t>iam_role_permission-33</t>
+  </si>
+  <si>
+    <t>iam_role_permission-34</t>
+  </si>
+  <si>
+    <t>iam_role_permission-35</t>
+  </si>
+  <si>
+    <t>iam_role_permission-36</t>
+  </si>
+  <si>
+    <t>iam_role_permission-37</t>
+  </si>
+  <si>
+    <t>iam_role_permission-38</t>
+  </si>
+  <si>
+    <t>iam_role_permission-39</t>
+  </si>
+  <si>
+    <t>iam_role_permission-40</t>
+  </si>
+  <si>
+    <t>iam_role_permission-41</t>
+  </si>
+  <si>
+    <t>iam_role_permission-42</t>
+  </si>
+  <si>
+    <t>iam_role_permission-43</t>
+  </si>
+  <si>
+    <t>iam_role_permission-44</t>
+  </si>
+  <si>
+    <t>iam_role_permission-45</t>
   </si>
 </sst>
 </file>
@@ -3112,7 +3419,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="58">
+  <fonts count="77">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3343,6 +3650,41 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
     </font>
     <font>
@@ -3394,6 +3736,66 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3569,7 +3971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3676,6 +4078,25 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4302,13 +4723,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="53">
+      <c r="D7" t="s" s="60">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="54">
+      <c r="E7" t="s" s="61">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="55">
+      <c r="F7" t="s" s="62">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4320,10 +4741,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="56">
+      <c r="J7" t="s" s="63">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="57">
+      <c r="K7" t="s" s="64">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4344,7 +4765,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="58">
+      <c r="R7" t="s" s="65">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -5232,16 +5653,16 @@
       <c r="C7" t="s">
         <v>155</v>
       </c>
-      <c r="D7" t="s" s="59">
+      <c r="D7" t="s" s="66">
         <v>156</v>
       </c>
-      <c r="E7" t="s" s="60">
+      <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="61">
+      <c r="F7" t="s" s="68">
         <v>157</v>
       </c>
-      <c r="G7" t="s" s="62">
+      <c r="G7" t="s" s="69">
         <v>158</v>
       </c>
     </row>
@@ -6316,16 +6737,16 @@
       <c r="C7" t="s">
         <v>342</v>
       </c>
-      <c r="D7" t="s" s="63">
+      <c r="D7" t="s" s="70">
         <v>343</v>
       </c>
-      <c r="E7" t="s" s="64">
+      <c r="E7" t="s" s="71">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="65">
+      <c r="F7" t="s" s="72">
         <v>344</v>
       </c>
-      <c r="G7" t="s" s="66">
+      <c r="G7" t="s" s="73">
         <v>345</v>
       </c>
       <c r="H7" t="s">
@@ -6935,19 +7356,19 @@
       <c r="C28" t="s">
         <v>410</v>
       </c>
-      <c r="D28" t="s" s="67">
+      <c r="D28" t="s" s="74">
         <v>411</v>
       </c>
-      <c r="E28" t="s" s="68">
+      <c r="E28" t="s" s="75">
         <v>412</v>
       </c>
-      <c r="F28" t="s" s="69">
+      <c r="F28" t="s" s="76">
         <v>413</v>
       </c>
-      <c r="G28" t="s" s="70">
+      <c r="G28" t="s" s="77">
         <v>414</v>
       </c>
-      <c r="H28" t="s" s="71">
+      <c r="H28" t="s" s="78">
         <v>415</v>
       </c>
       <c r="I28" t="s">
@@ -7309,6 +7730,1152 @@
       </c>
       <c r="I49" t="s">
         <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Y45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="53">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s" s="54">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s" s="55">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s" s="56">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="s" s="57">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s" s="58">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s" s="59">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D7" t="s" s="79">
+        <v>421</v>
+      </c>
+      <c r="E7" t="s" s="80">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s" s="81">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>422</v>
+      </c>
+      <c r="J7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K7" t="s" s="82">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>423</v>
+      </c>
+      <c r="M7" t="s" s="83">
+        <v>424</v>
+      </c>
+      <c r="N7" t="s" s="84">
+        <v>425</v>
+      </c>
+      <c r="O7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>428</v>
+      </c>
+      <c r="R7" t="s">
+        <v>429</v>
+      </c>
+      <c r="S7" t="s">
+        <v>430</v>
+      </c>
+      <c r="T7" t="s">
+        <v>431</v>
+      </c>
+      <c r="U7" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" t="s">
+        <v>432</v>
+      </c>
+      <c r="W7" t="s" s="85">
+        <v>433</v>
+      </c>
+      <c r="X7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H8" t="s">
+        <v>439</v>
+      </c>
+      <c r="I8" t="s">
+        <v>440</v>
+      </c>
+      <c r="J8" t="s">
+        <v>441</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" t="s">
+        <v>83</v>
+      </c>
+      <c r="T8" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" t="s">
+        <v>439</v>
+      </c>
+      <c r="V8" t="s">
+        <v>439</v>
+      </c>
+      <c r="W8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>442</v>
+      </c>
+      <c r="F9" t="s">
+        <v>443</v>
+      </c>
+      <c r="G9" t="s">
+        <v>444</v>
+      </c>
+      <c r="H9" t="s">
+        <v>445</v>
+      </c>
+      <c r="I9" t="s">
+        <v>446</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S9" t="s">
+        <v>83</v>
+      </c>
+      <c r="T9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" t="s">
+        <v>445</v>
+      </c>
+      <c r="V9" t="s">
+        <v>445</v>
+      </c>
+      <c r="W9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H10" t="s">
+        <v>450</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10">
+        <f>角色!$E$9</f>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" t="s">
+        <v>451</v>
+      </c>
+      <c r="V10" t="s">
+        <v>452</v>
+      </c>
+      <c r="W10" t="s">
+        <v>81</v>
+      </c>
+      <c r="X10" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>454</v>
+      </c>
+      <c r="F11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G11" t="s">
+        <v>456</v>
+      </c>
+      <c r="H11" t="s">
+        <v>457</v>
+      </c>
+      <c r="J11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11">
+        <f>角色!$E$9</f>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U11" t="s">
+        <v>458</v>
+      </c>
+      <c r="V11" t="s">
+        <v>459</v>
+      </c>
+      <c r="W11" t="s">
+        <v>81</v>
+      </c>
+      <c r="X11" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>462</v>
+      </c>
+      <c r="F12" t="s">
+        <v>463</v>
+      </c>
+      <c r="G12" t="s">
+        <v>464</v>
+      </c>
+      <c r="H12" t="s">
+        <v>465</v>
+      </c>
+      <c r="J12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12">
+        <f>角色!$E$9</f>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" t="s">
+        <v>83</v>
+      </c>
+      <c r="S12" t="s">
+        <v>83</v>
+      </c>
+      <c r="T12" t="s">
+        <v>81</v>
+      </c>
+      <c r="U12" t="s">
+        <v>466</v>
+      </c>
+      <c r="V12" t="s">
+        <v>467</v>
+      </c>
+      <c r="W12" t="s">
+        <v>81</v>
+      </c>
+      <c r="X12" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>470</v>
+      </c>
+      <c r="F13" t="s">
+        <v>471</v>
+      </c>
+      <c r="G13" t="s">
+        <v>472</v>
+      </c>
+      <c r="H13" t="s">
+        <v>473</v>
+      </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13">
+        <f>角色!$E$9</f>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>81</v>
+      </c>
+      <c r="R13" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" t="s">
+        <v>83</v>
+      </c>
+      <c r="T13" t="s">
+        <v>81</v>
+      </c>
+      <c r="U13" t="s">
+        <v>474</v>
+      </c>
+      <c r="V13" t="s">
+        <v>475</v>
+      </c>
+      <c r="W13" t="s">
+        <v>81</v>
+      </c>
+      <c r="X13" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>478</v>
+      </c>
+      <c r="F14" t="s">
+        <v>479</v>
+      </c>
+      <c r="G14" t="s">
+        <v>480</v>
+      </c>
+      <c r="H14" t="s">
+        <v>481</v>
+      </c>
+      <c r="J14" t="s">
+        <v>441</v>
+      </c>
+      <c r="K14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>81</v>
+      </c>
+      <c r="R14" t="s">
+        <v>83</v>
+      </c>
+      <c r="S14" t="s">
+        <v>83</v>
+      </c>
+      <c r="T14" t="s">
+        <v>81</v>
+      </c>
+      <c r="U14" t="s">
+        <v>481</v>
+      </c>
+      <c r="V14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>483</v>
+      </c>
+      <c r="D16" t="s" s="86">
+        <v>484</v>
+      </c>
+      <c r="E16" t="s" s="87">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s" s="88">
+        <v>485</v>
+      </c>
+      <c r="G16" t="s" s="89">
+        <v>486</v>
+      </c>
+      <c r="H16" t="s">
+        <v>487</v>
+      </c>
+      <c r="I16" t="s">
+        <v>488</v>
+      </c>
+      <c r="J16" t="s" s="90">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>489</v>
+      </c>
+      <c r="F17">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G17">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="H17" t="s">
+        <v>490</v>
+      </c>
+      <c r="I17" t="s">
+        <v>491</v>
+      </c>
+      <c r="J17" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>493</v>
+      </c>
+      <c r="F18">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G18">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H18" t="s">
+        <v>490</v>
+      </c>
+      <c r="I18" t="s">
+        <v>491</v>
+      </c>
+      <c r="J18" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>494</v>
+      </c>
+      <c r="F19">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G19">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H19" t="s">
+        <v>490</v>
+      </c>
+      <c r="I19" t="s">
+        <v>491</v>
+      </c>
+      <c r="J19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>495</v>
+      </c>
+      <c r="F20">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G20">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="H20" t="s">
+        <v>490</v>
+      </c>
+      <c r="I20" t="s">
+        <v>491</v>
+      </c>
+      <c r="J20" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>496</v>
+      </c>
+      <c r="F21">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G21">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H21" t="s">
+        <v>490</v>
+      </c>
+      <c r="I21" t="s">
+        <v>491</v>
+      </c>
+      <c r="J21" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>497</v>
+      </c>
+      <c r="F22">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G22">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H22" t="s">
+        <v>490</v>
+      </c>
+      <c r="I22" t="s">
+        <v>491</v>
+      </c>
+      <c r="J22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>498</v>
+      </c>
+      <c r="F23">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G23">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H23" t="s">
+        <v>490</v>
+      </c>
+      <c r="I23" t="s">
+        <v>491</v>
+      </c>
+      <c r="J23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>499</v>
+      </c>
+      <c r="F24">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G24">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="H24" t="s">
+        <v>490</v>
+      </c>
+      <c r="I24" t="s">
+        <v>491</v>
+      </c>
+      <c r="J24" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>500</v>
+      </c>
+      <c r="F25">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G25">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H25" t="s">
+        <v>490</v>
+      </c>
+      <c r="I25" t="s">
+        <v>491</v>
+      </c>
+      <c r="J25" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>501</v>
+      </c>
+      <c r="F26">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G26">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="H26" t="s">
+        <v>490</v>
+      </c>
+      <c r="I26" t="s">
+        <v>491</v>
+      </c>
+      <c r="J26" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>502</v>
+      </c>
+      <c r="F27">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G27">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="H27" t="s">
+        <v>490</v>
+      </c>
+      <c r="I27" t="s">
+        <v>491</v>
+      </c>
+      <c r="J27" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>503</v>
+      </c>
+      <c r="F28">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G28">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="H28" t="s">
+        <v>490</v>
+      </c>
+      <c r="I28" t="s">
+        <v>491</v>
+      </c>
+      <c r="J28" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>504</v>
+      </c>
+      <c r="F29">
+        <f>角色!$E$11</f>
+      </c>
+      <c r="G29">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H29" t="s">
+        <v>490</v>
+      </c>
+      <c r="I29" t="s">
+        <v>491</v>
+      </c>
+      <c r="J29" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>505</v>
+      </c>
+      <c r="F30">
+        <f>角色!$E$11</f>
+      </c>
+      <c r="G30">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H30" t="s">
+        <v>490</v>
+      </c>
+      <c r="I30" t="s">
+        <v>491</v>
+      </c>
+      <c r="J30" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>506</v>
+      </c>
+      <c r="F31">
+        <f>角色!$E$11</f>
+      </c>
+      <c r="G31">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="H31" t="s">
+        <v>507</v>
+      </c>
+      <c r="I31" t="s">
+        <v>491</v>
+      </c>
+      <c r="J31" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>508</v>
+      </c>
+      <c r="F32">
+        <f>角色!$E$11</f>
+      </c>
+      <c r="G32">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H32" t="s">
+        <v>490</v>
+      </c>
+      <c r="I32" t="s">
+        <v>491</v>
+      </c>
+      <c r="J32" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>509</v>
+      </c>
+      <c r="F33">
+        <f>角色!$E$11</f>
+      </c>
+      <c r="G33">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H33" t="s">
+        <v>507</v>
+      </c>
+      <c r="I33" t="s">
+        <v>491</v>
+      </c>
+      <c r="J33" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>510</v>
+      </c>
+      <c r="F34">
+        <f>角色!$E$11</f>
+      </c>
+      <c r="G34">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H34" t="s">
+        <v>490</v>
+      </c>
+      <c r="I34" t="s">
+        <v>491</v>
+      </c>
+      <c r="J34" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>511</v>
+      </c>
+      <c r="F35">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G35">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="H35" t="s">
+        <v>490</v>
+      </c>
+      <c r="I35" t="s">
+        <v>491</v>
+      </c>
+      <c r="J35" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>512</v>
+      </c>
+      <c r="F36">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G36">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="H36" t="s">
+        <v>490</v>
+      </c>
+      <c r="I36" t="s">
+        <v>491</v>
+      </c>
+      <c r="J36" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>513</v>
+      </c>
+      <c r="F37">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G37">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H37" t="s">
+        <v>490</v>
+      </c>
+      <c r="I37" t="s">
+        <v>491</v>
+      </c>
+      <c r="J37" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>514</v>
+      </c>
+      <c r="F38">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G38">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="H38" t="s">
+        <v>490</v>
+      </c>
+      <c r="I38" t="s">
+        <v>491</v>
+      </c>
+      <c r="J38" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>515</v>
+      </c>
+      <c r="F39">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G39">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="H39" t="s">
+        <v>490</v>
+      </c>
+      <c r="I39" t="s">
+        <v>491</v>
+      </c>
+      <c r="J39" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>516</v>
+      </c>
+      <c r="F40">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G40">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="H40" t="s">
+        <v>490</v>
+      </c>
+      <c r="I40" t="s">
+        <v>491</v>
+      </c>
+      <c r="J40" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>517</v>
+      </c>
+      <c r="F41">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G41">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="H41" t="s">
+        <v>490</v>
+      </c>
+      <c r="I41" t="s">
+        <v>491</v>
+      </c>
+      <c r="J41" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>518</v>
+      </c>
+      <c r="F42">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G42">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="H42" t="s">
+        <v>490</v>
+      </c>
+      <c r="I42" t="s">
+        <v>491</v>
+      </c>
+      <c r="J42" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>519</v>
+      </c>
+      <c r="F43">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G43">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H43" t="s">
+        <v>490</v>
+      </c>
+      <c r="I43" t="s">
+        <v>491</v>
+      </c>
+      <c r="J43" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>520</v>
+      </c>
+      <c r="F44">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G44">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="H44" t="s">
+        <v>490</v>
+      </c>
+      <c r="I44" t="s">
+        <v>491</v>
+      </c>
+      <c r="J44" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>521</v>
+      </c>
+      <c r="F45">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G45">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="H45" t="s">
+        <v>507</v>
+      </c>
+      <c r="I45" t="s">
+        <v>491</v>
+      </c>
+      <c r="J45" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="382">
   <si>
     <r>
       <rPr>
@@ -2076,240 +2076,138 @@
     <t>iam_menu-8</t>
   </si>
   <si>
-    <t>choerodon.code.organization</t>
-  </si>
-  <si>
-    <t>组织层通用</t>
-  </si>
-  <si>
-    <t>组织层知识库</t>
+    <t>choerodon.code.project.cooperation</t>
+  </si>
+  <si>
+    <t>协作</t>
+  </si>
+  <si>
+    <t>XZ</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>iam_menu-9</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation.knowledge</t>
+  </si>
+  <si>
+    <t>知识库</t>
+  </si>
+  <si>
+    <t>ZSK</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>/knowledge/project</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge</t>
+  </si>
+  <si>
+    <t>iam_menu-10</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.deletebase</t>
+  </si>
+  <si>
+    <t>删除知识库</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>api</t>
-  </si>
-  <si>
-    <t>iam_menu-9</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.knowledge</t>
-  </si>
-  <si>
-    <t>知识库</t>
-  </si>
-  <si>
-    <t>ZSK</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>/knowledge/organization</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization|choerodon.code.organization.konwledge</t>
-  </si>
-  <si>
-    <t>iam_menu-10</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.knowledge.ps.default</t>
-  </si>
-  <si>
-    <t>默认权限集</t>
-  </si>
-  <si>
     <t>ps</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization|choerodon.code.organization.konwledge|choerodon.code.organization.konwledge.ps.default</t>
-  </si>
-  <si>
-    <t>disabled</t>
+    <t>link</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge|choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.deletebase</t>
   </si>
   <si>
     <t>iam_menu-11</t>
   </si>
   <si>
-    <t>choerodon.code.organization.knowledge.ps.doc</t>
-  </si>
-  <si>
-    <t>doc基础权限集</t>
-  </si>
-  <si>
-    <t>doc权限集</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization|choerodon.code.organization.konwledge|choerodon.code.organization.konwledge.ps.doc</t>
+    <t>choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.page</t>
+  </si>
+  <si>
+    <t>知识库文档页面</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge|choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.page</t>
   </si>
   <si>
     <t>iam_menu-12</t>
   </si>
   <si>
-    <t>choerodon.code.organization.knowledge.ps.doc.delete</t>
+    <t>choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.updatebase</t>
+  </si>
+  <si>
+    <t>修改知识库</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge|choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.updatebase</t>
+  </si>
+  <si>
+    <t>iam_menu-13</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation.knowledge.ps.default</t>
+  </si>
+  <si>
+    <t>知识库默认权限集</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge|choerodon.code.project.cooperation.knowledge.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-14</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation.knowledge.ps.doc.delete</t>
   </si>
   <si>
     <t>删除文档</t>
   </si>
   <si>
-    <t>choerodon.code.organization|choerodon.code.organization.konwledge|choerodon.code.organization.konwledge.ps.doc.delete</t>
-  </si>
-  <si>
-    <t>iam_menu-13</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.knowledge.ps.page_comment.delete</t>
+    <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge|choerodon.code.project.cooperation.knowledge.ps.doc.delete</t>
+  </si>
+  <si>
+    <t>iam_menu-15</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation.knowledge.ps.page_comment.delete</t>
   </si>
   <si>
     <t>删除评论</t>
   </si>
   <si>
-    <t>choerodon.code.organization|choerodon.code.organization.konwledge|choerodon.code.organization.konwledge.ps.page_comment.delete</t>
-  </si>
-  <si>
-    <t>iam_menu-14</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.knowledge.ps.recycle</t>
-  </si>
-  <si>
-    <t>回收站删除和还原</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization|choerodon.code.organization.konwledge|choerodon.code.organization.konwledge.ps.recycle</t>
-  </si>
-  <si>
-    <t>iam_menu-15</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.knowledge.ps.template.delete</t>
-  </si>
-  <si>
-    <t>删除文档模板</t>
-  </si>
-  <si>
-    <t>删除模板</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization|choerodon.code.organization.konwledge|choerodon.code.organization.konwledge.ps.template.delete</t>
-  </si>
-  <si>
-    <t>iam_menu-16</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation</t>
-  </si>
-  <si>
-    <t>协作</t>
-  </si>
-  <si>
-    <t>XZ</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>iam_menu-17</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation.knowledge</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>/knowledge/project</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge</t>
-  </si>
-  <si>
-    <t>iam_menu-18</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.deletebase</t>
-  </si>
-  <si>
-    <t>删除知识库</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge|choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.deletebase</t>
-  </si>
-  <si>
-    <t>iam_menu-19</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.page</t>
-  </si>
-  <si>
-    <t>知识库文档页面</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge|choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.page</t>
-  </si>
-  <si>
-    <t>iam_menu-20</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.updatebase</t>
-  </si>
-  <si>
-    <t>修改知识库</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge|choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.updatebase</t>
-  </si>
-  <si>
-    <t>iam_menu-21</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation.knowledge.ps.default</t>
-  </si>
-  <si>
-    <t>知识库默认权限集</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge|choerodon.code.project.cooperation.knowledge.ps.default</t>
-  </si>
-  <si>
-    <t>iam_menu-22</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation.knowledge.ps.doc.delete</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge|choerodon.code.project.cooperation.knowledge.ps.doc.delete</t>
-  </si>
-  <si>
-    <t>iam_menu-23</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation.knowledge.ps.page_comment.delete</t>
-  </si>
-  <si>
     <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge|choerodon.code.project.cooperation.knowledge.ps.page_comment.delete</t>
   </si>
   <si>
@@ -2376,501 +2274,219 @@
     <t>iam_menu_permission-16</t>
   </si>
   <si>
-    <t>knowledgebase-service.document-template-organization.listSystemTemplate</t>
+    <t>knowledgebase-service.knowledge-base.updateKnowledgeBase</t>
   </si>
   <si>
     <t>iam_menu_permission-17</t>
   </si>
   <si>
-    <t>knowledgebase-service.knowledge-base-organization.createKnowledgeBase</t>
+    <t>knowledgebase-service.document-template.create</t>
   </si>
   <si>
     <t>iam_menu_permission-18</t>
   </si>
   <si>
-    <t>knowledgebase-service.knowledge-base-organization.queryKnowledgeBase</t>
+    <t>knowledgebase-service.document-template.listTemplate</t>
   </si>
   <si>
     <t>iam_menu_permission-19</t>
   </si>
   <si>
-    <t>knowledgebase-service.knowledge-base-organization.removeKnowledgeBase</t>
+    <t>knowledgebase-service.document-template.removeWorkSpaceAndPage</t>
   </si>
   <si>
     <t>iam_menu_permission-20</t>
   </si>
   <si>
-    <t>knowledgebase-service.knowledge-base-organization.updateKnowledgeBase</t>
+    <t>knowledgebase-service.document-template.updateTemplate</t>
   </si>
   <si>
     <t>iam_menu_permission-21</t>
   </si>
   <si>
-    <t>knowledgebase-service.project-operate.listOrganizationProjectInfo</t>
+    <t>knowledgebase-service.document-template.uploadAttach</t>
   </si>
   <si>
     <t>iam_menu_permission-22</t>
   </si>
   <si>
-    <t>knowledgebase-service.recycle-organization.pageByOptions</t>
+    <t>knowledgebase-service.page-attachment-project.batchDelete</t>
   </si>
   <si>
     <t>iam_menu_permission-23</t>
   </si>
   <si>
-    <t>knowledgebase-service.document-template-organization.create</t>
+    <t>knowledgebase-service.page-attachment-project.create</t>
   </si>
   <si>
     <t>iam_menu_permission-24</t>
   </si>
   <si>
-    <t>knowledgebase-service.document-template-organization.deleteAttach</t>
+    <t>knowledgebase-service.page-attachment-project.delete</t>
   </si>
   <si>
     <t>iam_menu_permission-25</t>
   </si>
   <si>
+    <t>knowledgebase-service.page-comment-project.create</t>
+  </si>
+  <si>
     <t>iam_menu_permission-26</t>
   </si>
   <si>
-    <t>knowledgebase-service.document-template-organization.listTemplate</t>
+    <t>knowledgebase-service.page-comment-project.deleteComment</t>
   </si>
   <si>
     <t>iam_menu_permission-27</t>
   </si>
   <si>
-    <t>knowledgebase-service.document-template-organization.updateTemplate</t>
+    <t>knowledgebase-service.page-comment-project.deleteMyComment</t>
   </si>
   <si>
     <t>iam_menu_permission-28</t>
   </si>
   <si>
-    <t>knowledgebase-service.document-template-organization.uploadAttach</t>
+    <t>knowledgebase-service.page-comment-project.update</t>
   </si>
   <si>
     <t>iam_menu_permission-29</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-attachment-organization.batchDelete</t>
+    <t>knowledgebase-service.page-log-project.listByPageId</t>
   </si>
   <si>
     <t>iam_menu_permission-30</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-attachment-organization.create</t>
+    <t>knowledgebase-service.page-project.createPageByImport</t>
   </si>
   <si>
     <t>iam_menu_permission-31</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-attachment-organization.delete</t>
+    <t>knowledgebase-service.page-project.createPageByTemplate</t>
   </si>
   <si>
     <t>iam_menu_permission-32</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-attachment-organization.queryByFileName</t>
+    <t>knowledgebase-service.page-project.exportMd2Pdf</t>
   </si>
   <si>
     <t>iam_menu_permission-33</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-attachment-organization.queryByList</t>
+    <t>knowledgebase-service.page-project.importDocx2Md</t>
   </si>
   <si>
     <t>iam_menu_permission-34</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-attachment-organization.uploadForAddress</t>
+    <t>knowledgebase-service.page-version-project.compareVersion</t>
   </si>
   <si>
     <t>iam_menu_permission-35</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-comment-organization.create</t>
+    <t>knowledgebase-service.page-version-project.listQuery</t>
   </si>
   <si>
     <t>iam_menu_permission-36</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-comment-organization.deleteMyComment</t>
+    <t>knowledgebase-service.page-version-project.queryById</t>
   </si>
   <si>
     <t>iam_menu_permission-37</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-comment-organization.queryByList</t>
+    <t>knowledgebase-service.page-version-project.rollbackVersion</t>
   </si>
   <si>
     <t>iam_menu_permission-38</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-comment-organization.update</t>
+    <t>knowledgebase-service.user-setting-project.createOrUpdate</t>
   </si>
   <si>
     <t>iam_menu_permission-39</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-log-organization.listByPageId</t>
+    <t>knowledgebase-service.work-space-organization.moveWorkSpace</t>
   </si>
   <si>
     <t>iam_menu_permission-40</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-organization.autoSavePage</t>
+    <t>knowledgebase-service.work-space-project.clonePage</t>
   </si>
   <si>
     <t>iam_menu_permission-41</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-organization.createPageByTemplate</t>
+    <t>knowledgebase-service.work-space-project.createWorkSpaceAndPage</t>
   </si>
   <si>
     <t>iam_menu_permission-42</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-organization.createPageWithContent</t>
+    <t>knowledgebase-service.work-space-project.moveWorkSpace</t>
   </si>
   <si>
     <t>iam_menu_permission-43</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-organization.deleteDraftContent</t>
+    <t>knowledgebase-service.work-space-project.queryAllSpaceByOptions</t>
   </si>
   <si>
     <t>iam_menu_permission-44</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-organization.importDocx2Md</t>
+    <t>knowledgebase-service.work-space-project.queryAllTreeList</t>
   </si>
   <si>
     <t>iam_menu_permission-45</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-organization.queryDraftPage</t>
+    <t>knowledgebase-service.work-space-project.queryWorkSpaceInfo</t>
   </si>
   <si>
     <t>iam_menu_permission-46</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-version-organization.compareVersion</t>
+    <t>knowledgebase-service.work-space-project.recentUpdateList</t>
   </si>
   <si>
     <t>iam_menu_permission-47</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-version-organization.listQuery</t>
+    <t>knowledgebase-service.work-space-project.removeWorkSpaceAndPageByMyWorkSpace</t>
   </si>
   <si>
     <t>iam_menu_permission-48</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-version-organization.queryById</t>
+    <t>knowledgebase-service.work-space-project.updateWorkSpaceAndPage</t>
   </si>
   <si>
     <t>iam_menu_permission-49</t>
   </si>
   <si>
-    <t>knowledgebase-service.page-version-organization.rollbackVersion</t>
+    <t>knowledgebase-service.work-space-share-project.queryShare</t>
   </si>
   <si>
     <t>iam_menu_permission-50</t>
   </si>
   <si>
-    <t>knowledgebase-service.work-space-organization.belongToBaseDelete</t>
+    <t>knowledgebase-service.knowledge-base.removeKnowledgeBase</t>
   </si>
   <si>
     <t>iam_menu_permission-51</t>
   </si>
   <si>
-    <t>knowledgebase-service.work-space-organization.clonePage</t>
-  </si>
-  <si>
     <t>iam_menu_permission-52</t>
   </si>
   <si>
-    <t>knowledgebase-service.work-space-organization.createWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-53</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.moveWorkSpace</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-54</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.queryAllSpaceByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-55</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.removeWorkSpaceAndPageMyWorkSpace</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-56</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.update</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-57</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-share-organization.queryShare</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-58</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-share-organization.update</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-59</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.removeWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-60</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.document-template-organization.removeWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-61</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-comment-organization.deleteComment</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-62</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.recycle-organization.deleteWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-63</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.recycle-organization.restoreWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-64</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.knowledge-base.updateKnowledgeBase</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-65</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.document-template.create</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-66</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.document-template.listTemplate</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-67</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.document-template.removeWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-68</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.document-template.updateTemplate</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-69</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.document-template.uploadAttach</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-70</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-attachment-project.batchDelete</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-71</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-attachment-project.create</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-72</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-attachment-project.delete</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-73</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-comment-project.create</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-74</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-comment-project.deleteComment</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-75</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-comment-project.deleteMyComment</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-76</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-comment-project.update</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-77</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-log-project.listByPageId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-78</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-project.createPageByImport</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-79</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-project.createPageByTemplate</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-80</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-project.exportMd2Pdf</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-81</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-project.importDocx2Md</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-82</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-version-project.compareVersion</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-83</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-version-project.listQuery</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-84</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-version-project.queryById</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-85</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-version-project.rollbackVersion</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-86</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.user-setting-project.createOrUpdate</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-87</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-88</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-project.clonePage</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-89</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-project.createWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-90</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-project.moveWorkSpace</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-91</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-project.queryAllSpaceByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-92</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-project.queryAllTreeList</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-93</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-project.queryWorkSpaceInfo</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-94</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-project.recentUpdateList</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-95</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-project.removeWorkSpaceAndPageByMyWorkSpace</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-96</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-project.updateWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-97</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-share-project.queryShare</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-98</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.knowledge-base.removeKnowledgeBase</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-99</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-100</t>
-  </si>
-  <si>
     <t>knowledgebase-service.work-space-project.removeWorkSpaceAndPage</t>
   </si>
   <si>
@@ -3063,21 +2679,21 @@
     <t>iam_label-25</t>
   </si>
   <si>
-    <t>TEST_SERVICE</t>
+    <t>KNOWLEDGEBASE_SERVICE</t>
+  </si>
+  <si>
+    <t>知识服务菜单</t>
+  </si>
+  <si>
+    <t>iam_label-26</t>
+  </si>
+  <si>
+    <t>TEST_MANAGER_SERVICE</t>
   </si>
   <si>
     <t>测试服务菜单</t>
   </si>
   <si>
-    <t>iam_label-26</t>
-  </si>
-  <si>
-    <t>KNOWLWDGE_SERVICE</t>
-  </si>
-  <si>
-    <t>知识服务菜单</t>
-  </si>
-  <si>
     <t>标签关系表</t>
   </si>
   <si>
@@ -3369,49 +2985,13 @@
     <t>iam_role_permission-31</t>
   </si>
   <si>
+    <t>iam_role_permission-32</t>
+  </si>
+  <si>
+    <t>iam_role_permission-33</t>
+  </si>
+  <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>iam_role_permission-32</t>
-  </si>
-  <si>
-    <t>iam_role_permission-33</t>
-  </si>
-  <si>
-    <t>iam_role_permission-34</t>
-  </si>
-  <si>
-    <t>iam_role_permission-35</t>
-  </si>
-  <si>
-    <t>iam_role_permission-36</t>
-  </si>
-  <si>
-    <t>iam_role_permission-37</t>
-  </si>
-  <si>
-    <t>iam_role_permission-38</t>
-  </si>
-  <si>
-    <t>iam_role_permission-39</t>
-  </si>
-  <si>
-    <t>iam_role_permission-40</t>
-  </si>
-  <si>
-    <t>iam_role_permission-41</t>
-  </si>
-  <si>
-    <t>iam_role_permission-42</t>
-  </si>
-  <si>
-    <t>iam_role_permission-43</t>
-  </si>
-  <si>
-    <t>iam_role_permission-44</t>
-  </si>
-  <si>
-    <t>iam_role_permission-45</t>
   </si>
 </sst>
 </file>
@@ -4682,7 +4262,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4801,40 +4381,37 @@
         <v>77</v>
       </c>
       <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
         <v>78</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>79</v>
       </c>
-      <c r="J8" t="s">
-        <v>80</v>
-      </c>
       <c r="K8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>82</v>
       </c>
-      <c r="M8" t="s">
-        <v>81</v>
-      </c>
       <c r="N8" t="s">
         <v>83</v>
       </c>
-      <c r="P8" t="s">
-        <v>79</v>
-      </c>
       <c r="Q8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s">
         <v>76</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s">
         <v>84</v>
@@ -4860,7 +4437,7 @@
         <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9">
         <f>菜单SAAS版!$E$8</f>
@@ -4869,25 +4446,28 @@
         <v>89</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="N9" t="s">
         <v>83</v>
       </c>
+      <c r="O9" t="s">
+        <v>91</v>
+      </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s">
         <v>84</v>
@@ -4898,49 +4478,46 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
         <v>79</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
       </c>
       <c r="K10">
         <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s">
         <v>83</v>
       </c>
+      <c r="O10" t="s">
+        <v>99</v>
+      </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
-      </c>
-      <c r="U10" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s">
         <v>84</v>
@@ -4951,49 +4528,46 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
         <v>79</v>
-      </c>
-      <c r="J11" t="s">
-        <v>80</v>
       </c>
       <c r="K11">
         <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N11" t="s">
         <v>83</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
         <v>104</v>
       </c>
       <c r="T11" t="s">
-        <v>81</v>
-      </c>
-      <c r="U11" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s">
         <v>84</v>
@@ -5016,34 +4590,34 @@
         <v>107</v>
       </c>
       <c r="I12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" t="s">
         <v>79</v>
-      </c>
-      <c r="J12" t="s">
-        <v>80</v>
       </c>
       <c r="K12">
         <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N12" t="s">
         <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s">
         <v>108</v>
       </c>
       <c r="T12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s">
         <v>84</v>
@@ -5065,35 +4639,32 @@
       <c r="H13" t="s">
         <v>111</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>79</v>
-      </c>
-      <c r="J13" t="s">
-        <v>80</v>
       </c>
       <c r="K13">
         <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L13" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="M13" t="s">
+        <v>80</v>
       </c>
       <c r="N13" t="s">
         <v>83</v>
       </c>
-      <c r="O13" t="s">
-        <v>103</v>
-      </c>
       <c r="Q13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s">
         <v>112</v>
       </c>
       <c r="T13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s">
         <v>84</v>
@@ -5116,34 +4687,34 @@
         <v>115</v>
       </c>
       <c r="I14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" t="s">
         <v>79</v>
-      </c>
-      <c r="J14" t="s">
-        <v>80</v>
       </c>
       <c r="K14">
         <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N14" t="s">
         <v>83</v>
       </c>
       <c r="O14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s">
         <v>116</v>
       </c>
       <c r="T14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s">
         <v>84</v>
@@ -5163,445 +4734,42 @@
         <v>119</v>
       </c>
       <c r="H15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" t="s">
         <v>79</v>
-      </c>
-      <c r="J15" t="s">
-        <v>80</v>
       </c>
       <c r="K15">
         <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N15" t="s">
         <v>83</v>
       </c>
       <c r="O15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s">
         <v>84</v>
       </c>
       <c r="X15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" t="s">
-        <v>126</v>
-      </c>
-      <c r="N16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>81</v>
-      </c>
-      <c r="R16" t="s">
-        <v>81</v>
-      </c>
-      <c r="S16" t="s">
-        <v>123</v>
-      </c>
-      <c r="T16" t="s">
-        <v>81</v>
-      </c>
-      <c r="V16" t="s">
-        <v>84</v>
-      </c>
-      <c r="X16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17">
-        <f>菜单SAAS版!$E$16</f>
-      </c>
-      <c r="L17" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" t="s">
-        <v>129</v>
-      </c>
-      <c r="N17" t="s">
-        <v>83</v>
-      </c>
-      <c r="O17" t="s">
-        <v>130</v>
-      </c>
-      <c r="P17" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>81</v>
-      </c>
-      <c r="R17" t="s">
-        <v>81</v>
-      </c>
-      <c r="S17" t="s">
-        <v>132</v>
-      </c>
-      <c r="T17" t="s">
-        <v>81</v>
-      </c>
-      <c r="V17" t="s">
-        <v>84</v>
-      </c>
-      <c r="X17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18">
-        <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="L18" t="s">
-        <v>95</v>
-      </c>
-      <c r="N18" t="s">
-        <v>83</v>
-      </c>
-      <c r="O18" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>81</v>
-      </c>
-      <c r="R18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S18" t="s">
-        <v>136</v>
-      </c>
-      <c r="T18" t="s">
-        <v>81</v>
-      </c>
-      <c r="V18" t="s">
-        <v>84</v>
-      </c>
-      <c r="X18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19">
-        <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="L19" t="s">
-        <v>95</v>
-      </c>
-      <c r="N19" t="s">
-        <v>83</v>
-      </c>
-      <c r="O19" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>81</v>
-      </c>
-      <c r="R19" t="s">
-        <v>81</v>
-      </c>
-      <c r="S19" t="s">
-        <v>140</v>
-      </c>
-      <c r="T19" t="s">
-        <v>81</v>
-      </c>
-      <c r="V19" t="s">
-        <v>84</v>
-      </c>
-      <c r="X19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20">
-        <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="L20" t="s">
-        <v>95</v>
-      </c>
-      <c r="N20" t="s">
-        <v>83</v>
-      </c>
-      <c r="O20" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>81</v>
-      </c>
-      <c r="R20" t="s">
-        <v>81</v>
-      </c>
-      <c r="S20" t="s">
-        <v>144</v>
-      </c>
-      <c r="T20" t="s">
-        <v>81</v>
-      </c>
-      <c r="V20" t="s">
-        <v>84</v>
-      </c>
-      <c r="X20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" t="s">
-        <v>147</v>
-      </c>
-      <c r="J21" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21">
-        <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="L21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M21" t="s">
-        <v>81</v>
-      </c>
-      <c r="N21" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>81</v>
-      </c>
-      <c r="R21" t="s">
-        <v>81</v>
-      </c>
-      <c r="S21" t="s">
-        <v>148</v>
-      </c>
-      <c r="T21" t="s">
-        <v>81</v>
-      </c>
-      <c r="V21" t="s">
-        <v>84</v>
-      </c>
-      <c r="X21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" t="s">
-        <v>80</v>
-      </c>
-      <c r="K22">
-        <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="L22" t="s">
-        <v>95</v>
-      </c>
-      <c r="N22" t="s">
-        <v>83</v>
-      </c>
-      <c r="O22" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>81</v>
-      </c>
-      <c r="R22" t="s">
-        <v>81</v>
-      </c>
-      <c r="S22" t="s">
-        <v>151</v>
-      </c>
-      <c r="T22" t="s">
-        <v>81</v>
-      </c>
-      <c r="V22" t="s">
-        <v>84</v>
-      </c>
-      <c r="X22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23">
-        <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="L23" t="s">
-        <v>95</v>
-      </c>
-      <c r="N23" t="s">
-        <v>83</v>
-      </c>
-      <c r="O23" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>81</v>
-      </c>
-      <c r="R23" t="s">
-        <v>81</v>
-      </c>
-      <c r="S23" t="s">
-        <v>154</v>
-      </c>
-      <c r="T23" t="s">
-        <v>81</v>
-      </c>
-      <c r="V23" t="s">
-        <v>84</v>
-      </c>
-      <c r="X23" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5612,7 +4780,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5651,1042 +4819,514 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s" s="66">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="68">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s" s="69">
-        <v>158</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="F8">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="F9">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="F10">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="F11">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="F12">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="G12" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="F13">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="F14">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="F15">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="F16">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G16" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="F17">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G17" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="F18">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G18" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="F19">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G19" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="F20">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G20" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="F21">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G21" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="F22">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G22" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="F23">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G23" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="F24">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G24" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="F25">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="F26">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G26" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="F27">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G27" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="F28">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G28" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="F29">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G29" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="F30">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G30" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="F31">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G31" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="F32">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G32" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="F33">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G33" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="F34">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G34" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="F35">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G35" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="F36">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G36" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="F37">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G37" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="F38">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G38" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="F39">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G39" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="F40">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G40" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="F41">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G41" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="F42">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G42" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="F43">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G43" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="F44">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G44" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="F45">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G45" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="F46">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G46" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="F47">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G47" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="F48">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G48" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="F49">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G49" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="F50">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="G50" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="F51">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="G51" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="F52">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G52" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>248</v>
-      </c>
-      <c r="F53">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G53" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>250</v>
-      </c>
-      <c r="F54">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G54" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>252</v>
-      </c>
-      <c r="F55">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G55" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>254</v>
-      </c>
-      <c r="F56">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G56" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>256</v>
-      </c>
-      <c r="F57">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G57" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>258</v>
-      </c>
-      <c r="F58">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>260</v>
-      </c>
-      <c r="F59">
-        <f>菜单SAAS版!$E$12</f>
-      </c>
-      <c r="G59" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>262</v>
-      </c>
-      <c r="F60">
-        <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="G60" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>264</v>
-      </c>
-      <c r="F61">
-        <f>菜单SAAS版!$E$13</f>
-      </c>
-      <c r="G61" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>266</v>
-      </c>
-      <c r="F62">
-        <f>菜单SAAS版!$E$14</f>
-      </c>
-      <c r="G62" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>268</v>
-      </c>
-      <c r="F63">
-        <f>菜单SAAS版!$E$14</f>
-      </c>
-      <c r="G63" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>270</v>
-      </c>
-      <c r="F64">
-        <f>菜单SAAS版!$E$20</f>
-      </c>
-      <c r="G64" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="E65" t="s">
-        <v>272</v>
-      </c>
-      <c r="F65">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G65" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="E66" t="s">
-        <v>274</v>
-      </c>
-      <c r="F66">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G66" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="E67" t="s">
-        <v>276</v>
-      </c>
-      <c r="F67">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G67" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="E68" t="s">
-        <v>278</v>
-      </c>
-      <c r="F68">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G68" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="E69" t="s">
-        <v>280</v>
-      </c>
-      <c r="F69">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G69" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="E70" t="s">
-        <v>282</v>
-      </c>
-      <c r="F70">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G70" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="E71" t="s">
-        <v>284</v>
-      </c>
-      <c r="F71">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G71" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="E72" t="s">
-        <v>286</v>
-      </c>
-      <c r="F72">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G72" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="E73" t="s">
-        <v>288</v>
-      </c>
-      <c r="F73">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G73" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="E74" t="s">
-        <v>290</v>
-      </c>
-      <c r="F74">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G74" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="E75" t="s">
-        <v>292</v>
-      </c>
-      <c r="F75">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G75" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="E76" t="s">
-        <v>294</v>
-      </c>
-      <c r="F76">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G76" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="E77" t="s">
-        <v>296</v>
-      </c>
-      <c r="F77">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G77" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="E78" t="s">
-        <v>298</v>
-      </c>
-      <c r="F78">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>300</v>
-      </c>
-      <c r="F79">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G79" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="E80" t="s">
-        <v>302</v>
-      </c>
-      <c r="F80">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G80" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="E81" t="s">
-        <v>304</v>
-      </c>
-      <c r="F81">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G81" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="E82" t="s">
-        <v>306</v>
-      </c>
-      <c r="F82">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G82" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="E83" t="s">
-        <v>308</v>
-      </c>
-      <c r="F83">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G83" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="E84" t="s">
-        <v>310</v>
-      </c>
-      <c r="F84">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G84" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="E85" t="s">
-        <v>312</v>
-      </c>
-      <c r="F85">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G85" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="E86" t="s">
-        <v>314</v>
-      </c>
-      <c r="F86">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G86" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="E87" t="s">
-        <v>316</v>
-      </c>
-      <c r="F87">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G87" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="E88" t="s">
-        <v>317</v>
-      </c>
-      <c r="F88">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G88" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="E89" t="s">
-        <v>319</v>
-      </c>
-      <c r="F89">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G89" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="E90" t="s">
-        <v>321</v>
-      </c>
-      <c r="F90">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G90" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="E91" t="s">
-        <v>323</v>
-      </c>
-      <c r="F91">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G91" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="E92" t="s">
-        <v>325</v>
-      </c>
-      <c r="F92">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G92" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="E93" t="s">
-        <v>327</v>
-      </c>
-      <c r="F93">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G93" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="E94" t="s">
-        <v>329</v>
-      </c>
-      <c r="F94">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G94" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="E95" t="s">
-        <v>331</v>
-      </c>
-      <c r="F95">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G95" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="E96" t="s">
-        <v>333</v>
-      </c>
-      <c r="F96">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G96" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="E97" t="s">
-        <v>335</v>
-      </c>
-      <c r="F97">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="G97" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="E98" t="s">
-        <v>337</v>
-      </c>
-      <c r="F98">
-        <f>菜单SAAS版!$E$18</f>
-      </c>
-      <c r="G98" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="E99" t="s">
-        <v>339</v>
-      </c>
-      <c r="F99">
-        <f>菜单SAAS版!$E$23</f>
-      </c>
-      <c r="G99" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="E100" t="s">
-        <v>340</v>
-      </c>
-      <c r="F100">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="G100" t="s">
-        <v>341</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -6696,7 +5336,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6735,66 +5375,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>342</v>
+        <v>214</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>343</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="72">
-        <v>344</v>
+        <v>216</v>
       </c>
       <c r="G7" t="s" s="73">
-        <v>345</v>
+        <v>217</v>
       </c>
       <c r="H7" t="s">
-        <v>346</v>
+        <v>218</v>
       </c>
       <c r="I7" t="s">
-        <v>347</v>
+        <v>219</v>
       </c>
       <c r="J7" t="s">
-        <v>348</v>
+        <v>220</v>
       </c>
       <c r="K7" t="s">
-        <v>349</v>
+        <v>221</v>
       </c>
       <c r="L7" t="s">
-        <v>350</v>
+        <v>222</v>
       </c>
       <c r="M7" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="N7" t="s">
-        <v>352</v>
+        <v>224</v>
       </c>
       <c r="O7" t="s">
-        <v>353</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>354</v>
+        <v>226</v>
       </c>
       <c r="F8" t="s">
-        <v>355</v>
+        <v>227</v>
       </c>
       <c r="G8" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>357</v>
+        <v>229</v>
       </c>
       <c r="J8" t="s">
-        <v>358</v>
+        <v>230</v>
       </c>
       <c r="K8" t="s">
-        <v>355</v>
+        <v>227</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -6808,25 +5448,25 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="F9" t="s">
-        <v>360</v>
+        <v>232</v>
       </c>
       <c r="G9" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>357</v>
+        <v>229</v>
       </c>
       <c r="J9" t="s">
-        <v>361</v>
+        <v>233</v>
       </c>
       <c r="K9" t="s">
-        <v>360</v>
+        <v>232</v>
       </c>
       <c r="M9" t="s">
         <v>83</v>
@@ -6840,19 +5480,19 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>362</v>
+        <v>234</v>
       </c>
       <c r="F10" t="s">
-        <v>363</v>
+        <v>235</v>
       </c>
       <c r="G10" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="M10" t="s">
         <v>83</v>
@@ -6866,25 +5506,25 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="F11" t="s">
-        <v>366</v>
+        <v>238</v>
       </c>
       <c r="G11" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>357</v>
+        <v>229</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O11" t="s">
         <v>83</v>
@@ -6892,25 +5532,25 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>367</v>
+        <v>239</v>
       </c>
       <c r="F12" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="G12" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="J12" t="s">
-        <v>369</v>
+        <v>241</v>
       </c>
       <c r="K12" t="s">
-        <v>369</v>
+        <v>241</v>
       </c>
       <c r="M12" t="s">
         <v>83</v>
@@ -6924,28 +5564,28 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>370</v>
+        <v>242</v>
       </c>
       <c r="F13" t="s">
-        <v>371</v>
+        <v>243</v>
       </c>
       <c r="G13" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>357</v>
+        <v>229</v>
       </c>
       <c r="J13" t="s">
-        <v>372</v>
+        <v>244</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O13" t="s">
         <v>83</v>
@@ -6953,28 +5593,28 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>373</v>
+        <v>245</v>
       </c>
       <c r="F14" t="s">
-        <v>374</v>
+        <v>246</v>
       </c>
       <c r="G14" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>357</v>
+        <v>229</v>
       </c>
       <c r="J14" t="s">
-        <v>375</v>
+        <v>247</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O14" t="s">
         <v>83</v>
@@ -6982,28 +5622,28 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>376</v>
+        <v>248</v>
       </c>
       <c r="F15" t="s">
-        <v>377</v>
+        <v>249</v>
       </c>
       <c r="G15" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>357</v>
+        <v>229</v>
       </c>
       <c r="J15" t="s">
-        <v>378</v>
+        <v>250</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O15" t="s">
         <v>83</v>
@@ -7011,28 +5651,28 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>379</v>
+        <v>251</v>
       </c>
       <c r="F16" t="s">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="G16" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>357</v>
+        <v>229</v>
       </c>
       <c r="J16" t="s">
-        <v>381</v>
+        <v>253</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O16" t="s">
         <v>83</v>
@@ -7040,31 +5680,31 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>382</v>
+        <v>254</v>
       </c>
       <c r="F17" t="s">
-        <v>383</v>
+        <v>255</v>
       </c>
       <c r="G17" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>357</v>
+        <v>229</v>
       </c>
       <c r="J17" t="s">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="K17" t="s">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O17" t="s">
         <v>83</v>
@@ -7072,31 +5712,31 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>385</v>
+        <v>257</v>
       </c>
       <c r="F18" t="s">
-        <v>386</v>
+        <v>258</v>
       </c>
       <c r="G18" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>357</v>
+        <v>229</v>
       </c>
       <c r="J18" t="s">
-        <v>387</v>
+        <v>259</v>
       </c>
       <c r="K18" t="s">
-        <v>387</v>
+        <v>259</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O18" t="s">
         <v>83</v>
@@ -7104,25 +5744,25 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>388</v>
+        <v>260</v>
       </c>
       <c r="F19" t="s">
-        <v>389</v>
+        <v>261</v>
       </c>
       <c r="G19" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>357</v>
+        <v>229</v>
       </c>
       <c r="J19" t="s">
-        <v>390</v>
+        <v>262</v>
       </c>
       <c r="K19" t="s">
-        <v>389</v>
+        <v>261</v>
       </c>
       <c r="M19" t="s">
         <v>83</v>
@@ -7136,25 +5776,25 @@
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>391</v>
+        <v>263</v>
       </c>
       <c r="F20" t="s">
-        <v>392</v>
+        <v>264</v>
       </c>
       <c r="G20" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H20" t="s">
         <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="M20" t="s">
         <v>83</v>
       </c>
       <c r="N20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O20" t="s">
         <v>83</v>
@@ -7162,31 +5802,31 @@
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>393</v>
+        <v>265</v>
       </c>
       <c r="F21" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="G21" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="J21" t="s">
-        <v>395</v>
+        <v>267</v>
       </c>
       <c r="K21" t="s">
-        <v>395</v>
+        <v>267</v>
       </c>
       <c r="M21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O21" t="s">
         <v>83</v>
@@ -7194,31 +5834,31 @@
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>396</v>
+        <v>268</v>
       </c>
       <c r="F22" t="s">
-        <v>397</v>
+        <v>269</v>
       </c>
       <c r="G22" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H22" t="s">
         <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="J22" t="s">
-        <v>398</v>
+        <v>270</v>
       </c>
       <c r="K22" t="s">
-        <v>398</v>
+        <v>270</v>
       </c>
       <c r="M22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O22" t="s">
         <v>83</v>
@@ -7226,31 +5866,31 @@
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>399</v>
+        <v>271</v>
       </c>
       <c r="F23" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="G23" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H23" t="s">
         <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="J23" t="s">
-        <v>401</v>
+        <v>273</v>
       </c>
       <c r="K23" t="s">
-        <v>401</v>
+        <v>273</v>
       </c>
       <c r="M23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O23" t="s">
         <v>83</v>
@@ -7258,25 +5898,25 @@
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>402</v>
+        <v>274</v>
       </c>
       <c r="F24" t="s">
-        <v>403</v>
+        <v>275</v>
       </c>
       <c r="G24" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H24" t="s">
         <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" t="s">
         <v>83</v>
@@ -7284,31 +5924,28 @@
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>404</v>
+        <v>276</v>
       </c>
       <c r="F25" t="s">
-        <v>405</v>
+        <v>277</v>
       </c>
       <c r="G25" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H25" t="s">
         <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="J25" t="s">
-        <v>406</v>
-      </c>
-      <c r="K25" t="s">
-        <v>406</v>
+        <v>278</v>
       </c>
       <c r="M25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" t="s">
         <v>83</v>
@@ -7316,31 +5953,28 @@
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>407</v>
+        <v>279</v>
       </c>
       <c r="F26" t="s">
-        <v>408</v>
+        <v>280</v>
       </c>
       <c r="G26" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="H26" t="s">
         <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="J26" t="s">
-        <v>409</v>
-      </c>
-      <c r="K26" t="s">
-        <v>409</v>
+        <v>281</v>
       </c>
       <c r="M26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" t="s">
         <v>83</v>
@@ -7354,382 +5988,297 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>410</v>
+        <v>282</v>
       </c>
       <c r="D28" t="s" s="74">
-        <v>411</v>
+        <v>283</v>
       </c>
       <c r="E28" t="s" s="75">
-        <v>412</v>
+        <v>284</v>
       </c>
       <c r="F28" t="s" s="76">
-        <v>413</v>
+        <v>285</v>
       </c>
       <c r="G28" t="s" s="77">
-        <v>414</v>
+        <v>286</v>
       </c>
       <c r="H28" t="s" s="78">
-        <v>415</v>
+        <v>287</v>
       </c>
       <c r="I28" t="s">
-        <v>416</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="F29" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="G29">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="H29">
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I29" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="F30" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="G30">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="H30">
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I30" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="F31" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="G31">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="H31">
         <f>菜单标签数据!$E$15</f>
       </c>
       <c r="I31" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="F32" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="G32">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="H32">
         <f>菜单标签数据!$E$16</f>
       </c>
       <c r="I32" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="F33" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="G33">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="H33">
         <f>菜单标签数据!$E$21</f>
       </c>
       <c r="I33" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="F34" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="G34">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="H34">
         <f>菜单标签数据!$E$24</f>
       </c>
       <c r="I34" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="F35" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="G35">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="H35">
-        <f>菜单标签数据!$E$26</f>
+        <f>菜单标签数据!$E$25</f>
       </c>
       <c r="I35" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="F36" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="G36">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H36">
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I36" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="F37" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="G37">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H37">
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I37" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="F38" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="G38">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H38">
         <f>菜单标签数据!$E$15</f>
       </c>
       <c r="I38" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="F39" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="G39">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H39">
         <f>菜单标签数据!$E$17</f>
       </c>
       <c r="I39" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="F40" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="G40">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H40">
-        <f>菜单标签数据!$E$26</f>
+        <f>菜单标签数据!$E$25</f>
       </c>
       <c r="I40" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="F41" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="G41">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H41">
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I41" t="s">
-        <v>419</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="F42" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="G42">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H42">
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I42" t="s">
-        <v>419</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="F43" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="G43">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H43">
         <f>菜单标签数据!$E$15</f>
       </c>
       <c r="I43" t="s">
-        <v>419</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="F44" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="G44">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H44">
         <f>菜单标签数据!$E$17</f>
       </c>
       <c r="I44" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="s">
-        <v>417</v>
-      </c>
-      <c r="F45" t="s">
-        <v>356</v>
-      </c>
-      <c r="G45">
-        <f>菜单SAAS版!$E$8</f>
-      </c>
-      <c r="H45">
-        <f>菜单标签数据!$E$20</f>
-      </c>
-      <c r="I45" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="E46" t="s">
-        <v>417</v>
-      </c>
-      <c r="F46" t="s">
-        <v>356</v>
-      </c>
-      <c r="G46">
-        <f>菜单SAAS版!$E$8</f>
-      </c>
-      <c r="H46">
-        <f>菜单标签数据!$E$26</f>
-      </c>
-      <c r="I46" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="s">
-        <v>417</v>
-      </c>
-      <c r="F47" t="s">
-        <v>356</v>
-      </c>
-      <c r="G47">
-        <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H47">
-        <f>菜单标签数据!$E$18</f>
-      </c>
-      <c r="I47" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="E48" t="s">
-        <v>417</v>
-      </c>
-      <c r="F48" t="s">
-        <v>356</v>
-      </c>
-      <c r="G48">
-        <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H48">
-        <f>菜单标签数据!$E$20</f>
-      </c>
-      <c r="I48" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="E49" t="s">
-        <v>417</v>
-      </c>
-      <c r="F49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G49">
-        <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H49">
-        <f>菜单标签数据!$E$26</f>
-      </c>
-      <c r="I49" t="s">
-        <v>418</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -7739,7 +6288,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7778,10 +6327,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>420</v>
+        <v>292</v>
       </c>
       <c r="D7" t="s" s="79">
-        <v>421</v>
+        <v>293</v>
       </c>
       <c r="E7" t="s" s="80">
         <v>54</v>
@@ -7796,96 +6345,96 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>422</v>
+        <v>294</v>
       </c>
       <c r="J7" t="s">
-        <v>347</v>
+        <v>219</v>
       </c>
       <c r="K7" t="s" s="82">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>423</v>
+        <v>295</v>
       </c>
       <c r="M7" t="s" s="83">
-        <v>424</v>
+        <v>296</v>
       </c>
       <c r="N7" t="s" s="84">
-        <v>425</v>
+        <v>297</v>
       </c>
       <c r="O7" t="s">
-        <v>426</v>
+        <v>298</v>
       </c>
       <c r="P7" t="s">
-        <v>427</v>
+        <v>299</v>
       </c>
       <c r="Q7" t="s">
-        <v>428</v>
+        <v>300</v>
       </c>
       <c r="R7" t="s">
-        <v>429</v>
+        <v>301</v>
       </c>
       <c r="S7" t="s">
-        <v>430</v>
+        <v>302</v>
       </c>
       <c r="T7" t="s">
-        <v>431</v>
+        <v>303</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>432</v>
+        <v>304</v>
       </c>
       <c r="W7" t="s" s="85">
-        <v>433</v>
+        <v>305</v>
       </c>
       <c r="X7" t="s">
-        <v>434</v>
+        <v>306</v>
       </c>
       <c r="Y7" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>436</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
-        <v>437</v>
+        <v>309</v>
       </c>
       <c r="G8" t="s">
-        <v>438</v>
+        <v>310</v>
       </c>
       <c r="H8" t="s">
-        <v>439</v>
+        <v>311</v>
       </c>
       <c r="I8" t="s">
-        <v>440</v>
+        <v>312</v>
       </c>
       <c r="J8" t="s">
-        <v>441</v>
+        <v>313</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
         <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s">
         <v>83</v>
@@ -7894,57 +6443,57 @@
         <v>83</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>439</v>
+        <v>311</v>
       </c>
       <c r="V8" t="s">
-        <v>439</v>
+        <v>311</v>
       </c>
       <c r="W8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>442</v>
+        <v>314</v>
       </c>
       <c r="F9" t="s">
-        <v>443</v>
+        <v>315</v>
       </c>
       <c r="G9" t="s">
-        <v>444</v>
+        <v>316</v>
       </c>
       <c r="H9" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="I9" t="s">
-        <v>446</v>
+        <v>318</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s">
         <v>83</v>
       </c>
       <c r="Q9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s">
         <v>83</v>
@@ -7953,54 +6502,54 @@
         <v>83</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="V9" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="W9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>447</v>
+        <v>319</v>
       </c>
       <c r="F10" t="s">
-        <v>448</v>
+        <v>320</v>
       </c>
       <c r="G10" t="s">
-        <v>449</v>
+        <v>321</v>
       </c>
       <c r="H10" t="s">
-        <v>450</v>
+        <v>322</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M10">
         <f>角色!$E$9</f>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
         <v>83</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
         <v>83</v>
@@ -8009,60 +6558,60 @@
         <v>83</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>451</v>
+        <v>323</v>
       </c>
       <c r="V10" t="s">
-        <v>452</v>
+        <v>324</v>
       </c>
       <c r="W10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>443</v>
+        <v>315</v>
       </c>
       <c r="Y10" t="s">
-        <v>453</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>454</v>
+        <v>326</v>
       </c>
       <c r="F11" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="G11" t="s">
-        <v>456</v>
+        <v>328</v>
       </c>
       <c r="H11" t="s">
-        <v>457</v>
+        <v>329</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M11">
         <f>角色!$E$9</f>
       </c>
       <c r="N11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P11" t="s">
         <v>83</v>
       </c>
       <c r="Q11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
         <v>83</v>
@@ -8071,60 +6620,60 @@
         <v>83</v>
       </c>
       <c r="T11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>458</v>
+        <v>330</v>
       </c>
       <c r="V11" t="s">
-        <v>459</v>
+        <v>331</v>
       </c>
       <c r="W11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>460</v>
+        <v>332</v>
       </c>
       <c r="Y11" t="s">
-        <v>461</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>462</v>
+        <v>334</v>
       </c>
       <c r="F12" t="s">
-        <v>463</v>
+        <v>335</v>
       </c>
       <c r="G12" t="s">
-        <v>464</v>
+        <v>336</v>
       </c>
       <c r="H12" t="s">
-        <v>465</v>
+        <v>337</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M12">
         <f>角色!$E$9</f>
       </c>
       <c r="N12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
       </c>
       <c r="Q12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
         <v>83</v>
@@ -8133,60 +6682,60 @@
         <v>83</v>
       </c>
       <c r="T12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>466</v>
+        <v>338</v>
       </c>
       <c r="V12" t="s">
-        <v>467</v>
+        <v>339</v>
       </c>
       <c r="W12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>468</v>
+        <v>340</v>
       </c>
       <c r="Y12" t="s">
-        <v>469</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>470</v>
+        <v>342</v>
       </c>
       <c r="F13" t="s">
-        <v>471</v>
+        <v>343</v>
       </c>
       <c r="G13" t="s">
-        <v>472</v>
+        <v>344</v>
       </c>
       <c r="H13" t="s">
-        <v>473</v>
+        <v>345</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M13">
         <f>角色!$E$9</f>
       </c>
       <c r="N13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s">
         <v>83</v>
       </c>
       <c r="Q13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s">
         <v>83</v>
@@ -8195,60 +6744,60 @@
         <v>83</v>
       </c>
       <c r="T13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>474</v>
+        <v>346</v>
       </c>
       <c r="V13" t="s">
-        <v>475</v>
+        <v>347</v>
       </c>
       <c r="W13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>476</v>
+        <v>348</v>
       </c>
       <c r="Y13" t="s">
-        <v>477</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>478</v>
+        <v>350</v>
       </c>
       <c r="F14" t="s">
-        <v>479</v>
+        <v>351</v>
       </c>
       <c r="G14" t="s">
-        <v>480</v>
+        <v>352</v>
       </c>
       <c r="H14" t="s">
-        <v>481</v>
+        <v>353</v>
       </c>
       <c r="J14" t="s">
-        <v>441</v>
+        <v>313</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s">
         <v>83</v>
       </c>
       <c r="Q14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s">
         <v>83</v>
@@ -8257,13 +6806,13 @@
         <v>83</v>
       </c>
       <c r="T14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>481</v>
+        <v>353</v>
       </c>
       <c r="V14" t="s">
-        <v>482</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16">
@@ -8274,73 +6823,73 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>483</v>
+        <v>355</v>
       </c>
       <c r="D16" t="s" s="86">
-        <v>484</v>
+        <v>356</v>
       </c>
       <c r="E16" t="s" s="87">
         <v>54</v>
       </c>
       <c r="F16" t="s" s="88">
-        <v>485</v>
+        <v>357</v>
       </c>
       <c r="G16" t="s" s="89">
-        <v>486</v>
+        <v>358</v>
       </c>
       <c r="H16" t="s">
-        <v>487</v>
+        <v>359</v>
       </c>
       <c r="I16" t="s">
-        <v>488</v>
+        <v>360</v>
       </c>
       <c r="J16" t="s" s="90">
-        <v>345</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>489</v>
+        <v>361</v>
       </c>
       <c r="F17">
         <f>角色!$E$10</f>
       </c>
       <c r="G17">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H17" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="I17" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J17" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>493</v>
+        <v>365</v>
       </c>
       <c r="F18">
         <f>角色!$E$10</f>
       </c>
       <c r="G18">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="H18" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="I18" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J18" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>494</v>
+        <v>366</v>
       </c>
       <c r="F19">
         <f>角色!$E$10</f>
@@ -8349,38 +6898,38 @@
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="H19" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="I19" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J19" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>495</v>
+        <v>367</v>
       </c>
       <c r="F20">
         <f>角色!$E$10</f>
       </c>
       <c r="G20">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="H20" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="I20" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J20" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>496</v>
+        <v>368</v>
       </c>
       <c r="F21">
         <f>角色!$E$10</f>
@@ -8389,493 +6938,253 @@
         <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H21" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="I21" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J21" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>497</v>
+        <v>369</v>
       </c>
       <c r="F22">
         <f>角色!$E$10</f>
       </c>
       <c r="G22">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H22" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="I22" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J22" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>498</v>
+        <v>370</v>
       </c>
       <c r="F23">
-        <f>角色!$E$10</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G23">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H23" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="I23" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J23" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>499</v>
+        <v>371</v>
       </c>
       <c r="F24">
-        <f>角色!$E$10</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G24">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="H24" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="I24" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J24" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="F25">
-        <f>角色!$E$10</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G25">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="H25" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="I25" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J25" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>501</v>
+        <v>373</v>
       </c>
       <c r="F26">
-        <f>角色!$E$10</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G26">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="H26" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="I26" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J26" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>502</v>
+        <v>374</v>
       </c>
       <c r="F27">
-        <f>角色!$E$10</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G27">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H27" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="I27" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J27" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="F28">
-        <f>角色!$E$10</f>
+        <f>角色!$E$12</f>
       </c>
       <c r="G28">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H28" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="I28" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J28" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="F29">
-        <f>角色!$E$11</f>
+        <f>角色!$E$13</f>
       </c>
       <c r="G29">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H29" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="I29" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J29" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>505</v>
+        <v>377</v>
       </c>
       <c r="F30">
-        <f>角色!$E$11</f>
+        <f>角色!$E$13</f>
       </c>
       <c r="G30">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="H30" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="I30" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J30" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="F31">
-        <f>角色!$E$11</f>
+        <f>角色!$E$13</f>
       </c>
       <c r="G31">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="H31" t="s">
-        <v>507</v>
+        <v>362</v>
       </c>
       <c r="I31" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J31" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>508</v>
+        <v>379</v>
       </c>
       <c r="F32">
-        <f>角色!$E$11</f>
+        <f>角色!$E$13</f>
       </c>
       <c r="G32">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="H32" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="I32" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J32" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>509</v>
+        <v>380</v>
       </c>
       <c r="F33">
-        <f>角色!$E$11</f>
+        <f>角色!$E$13</f>
       </c>
       <c r="G33">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H33" t="s">
-        <v>507</v>
+        <v>381</v>
       </c>
       <c r="I33" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="J33" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
-        <v>510</v>
-      </c>
-      <c r="F34">
-        <f>角色!$E$11</f>
-      </c>
-      <c r="G34">
-        <f>菜单SAAS版!$E$14</f>
-      </c>
-      <c r="H34" t="s">
-        <v>490</v>
-      </c>
-      <c r="I34" t="s">
-        <v>491</v>
-      </c>
-      <c r="J34" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
-        <v>511</v>
-      </c>
-      <c r="F35">
-        <f>角色!$E$12</f>
-      </c>
-      <c r="G35">
-        <f>菜单SAAS版!$E$21</f>
-      </c>
-      <c r="H35" t="s">
-        <v>490</v>
-      </c>
-      <c r="I35" t="s">
-        <v>491</v>
-      </c>
-      <c r="J35" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
-        <v>512</v>
-      </c>
-      <c r="F36">
-        <f>角色!$E$12</f>
-      </c>
-      <c r="G36">
-        <f>菜单SAAS版!$E$20</f>
-      </c>
-      <c r="H36" t="s">
-        <v>490</v>
-      </c>
-      <c r="I36" t="s">
-        <v>491</v>
-      </c>
-      <c r="J36" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37">
-        <f>角色!$E$12</f>
-      </c>
-      <c r="G37">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="H37" t="s">
-        <v>490</v>
-      </c>
-      <c r="I37" t="s">
-        <v>491</v>
-      </c>
-      <c r="J37" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
-        <v>514</v>
-      </c>
-      <c r="F38">
-        <f>角色!$E$12</f>
-      </c>
-      <c r="G38">
-        <f>菜单SAAS版!$E$18</f>
-      </c>
-      <c r="H38" t="s">
-        <v>490</v>
-      </c>
-      <c r="I38" t="s">
-        <v>491</v>
-      </c>
-      <c r="J38" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
-        <v>515</v>
-      </c>
-      <c r="F39">
-        <f>角色!$E$12</f>
-      </c>
-      <c r="G39">
-        <f>菜单SAAS版!$E$23</f>
-      </c>
-      <c r="H39" t="s">
-        <v>490</v>
-      </c>
-      <c r="I39" t="s">
-        <v>491</v>
-      </c>
-      <c r="J39" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="E40" t="s">
-        <v>516</v>
-      </c>
-      <c r="F40">
-        <f>角色!$E$12</f>
-      </c>
-      <c r="G40">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="H40" t="s">
-        <v>490</v>
-      </c>
-      <c r="I40" t="s">
-        <v>491</v>
-      </c>
-      <c r="J40" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="E41" t="s">
-        <v>517</v>
-      </c>
-      <c r="F41">
-        <f>角色!$E$13</f>
-      </c>
-      <c r="G41">
-        <f>菜单SAAS版!$E$21</f>
-      </c>
-      <c r="H41" t="s">
-        <v>490</v>
-      </c>
-      <c r="I41" t="s">
-        <v>491</v>
-      </c>
-      <c r="J41" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="E42" t="s">
-        <v>518</v>
-      </c>
-      <c r="F42">
-        <f>角色!$E$13</f>
-      </c>
-      <c r="G42">
-        <f>菜单SAAS版!$E$20</f>
-      </c>
-      <c r="H42" t="s">
-        <v>490</v>
-      </c>
-      <c r="I42" t="s">
-        <v>491</v>
-      </c>
-      <c r="J42" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="E43" t="s">
-        <v>519</v>
-      </c>
-      <c r="F43">
-        <f>角色!$E$13</f>
-      </c>
-      <c r="G43">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="H43" t="s">
-        <v>490</v>
-      </c>
-      <c r="I43" t="s">
-        <v>491</v>
-      </c>
-      <c r="J43" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="E44" t="s">
-        <v>520</v>
-      </c>
-      <c r="F44">
-        <f>角色!$E$13</f>
-      </c>
-      <c r="G44">
-        <f>菜单SAAS版!$E$18</f>
-      </c>
-      <c r="H44" t="s">
-        <v>490</v>
-      </c>
-      <c r="I44" t="s">
-        <v>491</v>
-      </c>
-      <c r="J44" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="s">
-        <v>521</v>
-      </c>
-      <c r="F45">
-        <f>角色!$E$13</f>
-      </c>
-      <c r="G45">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="H45" t="s">
-        <v>507</v>
-      </c>
-      <c r="I45" t="s">
-        <v>491</v>
-      </c>
-      <c r="J45" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -17,6 +17,7 @@
     <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
     <sheet name="菜单标签数据" r:id="rId7" sheetId="4"/>
     <sheet name="角色" r:id="rId8" sheetId="5"/>
+    <sheet name="角色标签数据" r:id="rId9" sheetId="6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="413">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1999,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-06-01</t>
+    <t>2020-06-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2992,6 +2993,99 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>TENANT_MGR</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>租户管理员标签</t>
+  </si>
+  <si>
+    <t>Tenant Manager Label</t>
+  </si>
+  <si>
+    <t>SITE_MGR</t>
+  </si>
+  <si>
+    <t>平台管理员标签</t>
+  </si>
+  <si>
+    <t>TENANT_ROLE_TPL</t>
+  </si>
+  <si>
+    <t>标识内置模板角色</t>
+  </si>
+  <si>
+    <t>TENANT_ROLE</t>
+  </si>
+  <si>
+    <t>标识租户层角色</t>
+  </si>
+  <si>
+    <t>Tenant Role</t>
+  </si>
+  <si>
+    <t>TENANT_ADMIN</t>
+  </si>
+  <si>
+    <t>标识租户管理员角色</t>
+  </si>
+  <si>
+    <t>PROJECT_ROLE</t>
+  </si>
+  <si>
+    <t>标识项目层角色</t>
+  </si>
+  <si>
+    <t>Project Role</t>
+  </si>
+  <si>
+    <t>PROJECT_ADMIN</t>
+  </si>
+  <si>
+    <t>标识项目管理员角色</t>
+  </si>
+  <si>
+    <t>TENANT_MEMBER</t>
+  </si>
+  <si>
+    <t>标识租户成员角色</t>
+  </si>
+  <si>
+    <t>Tenant Member</t>
+  </si>
+  <si>
+    <t>PROJECT_MEMBER</t>
+  </si>
+  <si>
+    <t>标识项目成员角色</t>
+  </si>
+  <si>
+    <t>Project Member</t>
+  </si>
+  <si>
+    <t>TENANT_TPL</t>
+  </si>
+  <si>
+    <t>租户管理员模板标签</t>
+  </si>
+  <si>
+    <t>Tenant Template Label</t>
+  </si>
+  <si>
+    <t>GITLAB_OWNER</t>
+  </si>
+  <si>
+    <t>标识gitlab_owner</t>
+  </si>
+  <si>
+    <t>GITLAB_DEVELOPER</t>
+  </si>
+  <si>
+    <t>标识gitlab_developer</t>
   </si>
 </sst>
 </file>
@@ -2999,7 +3093,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="77">
+  <fonts count="93">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3265,6 +3359,21 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
     </font>
     <font>
@@ -3275,6 +3384,26 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
     </font>
     <font>
@@ -3376,6 +3505,51 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3551,7 +3725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3677,6 +3851,22 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4303,13 +4493,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="60">
+      <c r="D7" t="s" s="67">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="61">
+      <c r="E7" t="s" s="68">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="62">
+      <c r="F7" t="s" s="69">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4321,10 +4511,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="63">
+      <c r="J7" t="s" s="70">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="64">
+      <c r="K7" t="s" s="71">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4345,7 +4535,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="65">
+      <c r="R7" t="s" s="72">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4821,16 +5011,16 @@
       <c r="C7" t="s">
         <v>121</v>
       </c>
-      <c r="D7" t="s" s="66">
+      <c r="D7" t="s" s="73">
         <v>122</v>
       </c>
-      <c r="E7" t="s" s="67">
+      <c r="E7" t="s" s="74">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="68">
+      <c r="F7" t="s" s="75">
         <v>123</v>
       </c>
-      <c r="G7" t="s" s="69">
+      <c r="G7" t="s" s="76">
         <v>124</v>
       </c>
     </row>
@@ -5377,16 +5567,16 @@
       <c r="C7" t="s">
         <v>214</v>
       </c>
-      <c r="D7" t="s" s="70">
+      <c r="D7" t="s" s="77">
         <v>215</v>
       </c>
-      <c r="E7" t="s" s="71">
+      <c r="E7" t="s" s="78">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="72">
+      <c r="F7" t="s" s="79">
         <v>216</v>
       </c>
-      <c r="G7" t="s" s="73">
+      <c r="G7" t="s" s="80">
         <v>217</v>
       </c>
       <c r="H7" t="s">
@@ -5990,19 +6180,19 @@
       <c r="C28" t="s">
         <v>282</v>
       </c>
-      <c r="D28" t="s" s="74">
+      <c r="D28" t="s" s="81">
         <v>283</v>
       </c>
-      <c r="E28" t="s" s="75">
+      <c r="E28" t="s" s="82">
         <v>284</v>
       </c>
-      <c r="F28" t="s" s="76">
+      <c r="F28" t="s" s="83">
         <v>285</v>
       </c>
-      <c r="G28" t="s" s="77">
+      <c r="G28" t="s" s="84">
         <v>286</v>
       </c>
-      <c r="H28" t="s" s="78">
+      <c r="H28" t="s" s="85">
         <v>287</v>
       </c>
       <c r="I28" t="s">
@@ -6329,10 +6519,10 @@
       <c r="C7" t="s">
         <v>292</v>
       </c>
-      <c r="D7" t="s" s="79">
+      <c r="D7" t="s" s="86">
         <v>293</v>
       </c>
-      <c r="E7" t="s" s="80">
+      <c r="E7" t="s" s="87">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -6341,7 +6531,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s" s="81">
+      <c r="H7" t="s" s="88">
         <v>55</v>
       </c>
       <c r="I7" t="s">
@@ -6350,16 +6540,16 @@
       <c r="J7" t="s">
         <v>219</v>
       </c>
-      <c r="K7" t="s" s="82">
+      <c r="K7" t="s" s="89">
         <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>295</v>
       </c>
-      <c r="M7" t="s" s="83">
+      <c r="M7" t="s" s="90">
         <v>296</v>
       </c>
-      <c r="N7" t="s" s="84">
+      <c r="N7" t="s" s="91">
         <v>297</v>
       </c>
       <c r="O7" t="s">
@@ -6386,7 +6576,7 @@
       <c r="V7" t="s">
         <v>304</v>
       </c>
-      <c r="W7" t="s" s="85">
+      <c r="W7" t="s" s="92">
         <v>305</v>
       </c>
       <c r="X7" t="s">
@@ -6825,16 +7015,16 @@
       <c r="C16" t="s">
         <v>355</v>
       </c>
-      <c r="D16" t="s" s="86">
+      <c r="D16" t="s" s="93">
         <v>356</v>
       </c>
-      <c r="E16" t="s" s="87">
+      <c r="E16" t="s" s="94">
         <v>54</v>
       </c>
-      <c r="F16" t="s" s="88">
+      <c r="F16" t="s" s="95">
         <v>357</v>
       </c>
-      <c r="G16" t="s" s="89">
+      <c r="G16" t="s" s="96">
         <v>358</v>
       </c>
       <c r="H16" t="s">
@@ -6843,7 +7033,7 @@
       <c r="I16" t="s">
         <v>360</v>
       </c>
-      <c r="J16" t="s" s="90">
+      <c r="J16" t="s" s="97">
         <v>217</v>
       </c>
     </row>
@@ -7185,6 +7375,739 @@
       </c>
       <c r="J33" t="s">
         <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="60">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s" s="61">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s" s="62">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s" s="63">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="s" s="64">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s" s="65">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s" s="66">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" t="s" s="98">
+        <v>215</v>
+      </c>
+      <c r="E7" t="s" s="99">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s" s="100">
+        <v>216</v>
+      </c>
+      <c r="G7" t="s" s="101">
+        <v>217</v>
+      </c>
+      <c r="H7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M7" t="s">
+        <v>223</v>
+      </c>
+      <c r="N7" t="s">
+        <v>224</v>
+      </c>
+      <c r="O7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G8" t="s">
+        <v>383</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J8" t="s">
+        <v>384</v>
+      </c>
+      <c r="K8" t="s">
+        <v>385</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" t="s">
+        <v>386</v>
+      </c>
+      <c r="G9" t="s">
+        <v>383</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" t="s">
+        <v>236</v>
+      </c>
+      <c r="J9" t="s">
+        <v>387</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" t="s">
+        <v>388</v>
+      </c>
+      <c r="G10" t="s">
+        <v>383</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J10" t="s">
+        <v>389</v>
+      </c>
+      <c r="K10" t="s">
+        <v>389</v>
+      </c>
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" t="s">
+        <v>390</v>
+      </c>
+      <c r="G11" t="s">
+        <v>383</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>229</v>
+      </c>
+      <c r="J11" t="s">
+        <v>391</v>
+      </c>
+      <c r="K11" t="s">
+        <v>392</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" t="s">
+        <v>393</v>
+      </c>
+      <c r="G12" t="s">
+        <v>383</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s">
+        <v>229</v>
+      </c>
+      <c r="J12" t="s">
+        <v>394</v>
+      </c>
+      <c r="K12" t="s">
+        <v>394</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" t="s">
+        <v>395</v>
+      </c>
+      <c r="G13" t="s">
+        <v>383</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
+        <v>229</v>
+      </c>
+      <c r="J13" t="s">
+        <v>396</v>
+      </c>
+      <c r="K13" t="s">
+        <v>397</v>
+      </c>
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" t="s">
+        <v>398</v>
+      </c>
+      <c r="G14" t="s">
+        <v>383</v>
+      </c>
+      <c r="H14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" t="s">
+        <v>229</v>
+      </c>
+      <c r="J14" t="s">
+        <v>399</v>
+      </c>
+      <c r="K14" t="s">
+        <v>341</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F15" t="s">
+        <v>400</v>
+      </c>
+      <c r="G15" t="s">
+        <v>383</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" t="s">
+        <v>229</v>
+      </c>
+      <c r="J15" t="s">
+        <v>401</v>
+      </c>
+      <c r="K15" t="s">
+        <v>402</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" t="s">
+        <v>403</v>
+      </c>
+      <c r="G16" t="s">
+        <v>383</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" t="s">
+        <v>229</v>
+      </c>
+      <c r="J16" t="s">
+        <v>404</v>
+      </c>
+      <c r="K16" t="s">
+        <v>405</v>
+      </c>
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" t="s">
+        <v>406</v>
+      </c>
+      <c r="G17" t="s">
+        <v>383</v>
+      </c>
+      <c r="H17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" t="s">
+        <v>229</v>
+      </c>
+      <c r="J17" t="s">
+        <v>407</v>
+      </c>
+      <c r="K17" t="s">
+        <v>408</v>
+      </c>
+      <c r="M17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" t="s">
+        <v>409</v>
+      </c>
+      <c r="G18" t="s">
+        <v>383</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" t="s">
+        <v>229</v>
+      </c>
+      <c r="J18" t="s">
+        <v>410</v>
+      </c>
+      <c r="K18" t="s">
+        <v>409</v>
+      </c>
+      <c r="M18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" t="s">
+        <v>411</v>
+      </c>
+      <c r="G19" t="s">
+        <v>383</v>
+      </c>
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" t="s">
+        <v>229</v>
+      </c>
+      <c r="J19" t="s">
+        <v>412</v>
+      </c>
+      <c r="K19" t="s">
+        <v>411</v>
+      </c>
+      <c r="M19" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" t="s">
+        <v>83</v>
+      </c>
+      <c r="O19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" t="s" s="102">
+        <v>283</v>
+      </c>
+      <c r="E21" t="s" s="103">
+        <v>284</v>
+      </c>
+      <c r="F21" t="s" s="104">
+        <v>285</v>
+      </c>
+      <c r="G21" t="s" s="105">
+        <v>286</v>
+      </c>
+      <c r="H21" t="s" s="106">
+        <v>287</v>
+      </c>
+      <c r="I21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>289</v>
+      </c>
+      <c r="F22" t="s">
+        <v>383</v>
+      </c>
+      <c r="G22">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="H22">
+        <f>角色标签数据!$E$10</f>
+      </c>
+      <c r="I22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>289</v>
+      </c>
+      <c r="F23" t="s">
+        <v>383</v>
+      </c>
+      <c r="G23">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="H23">
+        <f>角色标签数据!$E$11</f>
+      </c>
+      <c r="I23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" t="s">
+        <v>383</v>
+      </c>
+      <c r="G24">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="H24">
+        <f>角色标签数据!$E$12</f>
+      </c>
+      <c r="I24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" t="s">
+        <v>383</v>
+      </c>
+      <c r="G25">
+        <f>角色!$E$11</f>
+      </c>
+      <c r="H25">
+        <f>角色标签数据!$E$10</f>
+      </c>
+      <c r="I25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" t="s">
+        <v>383</v>
+      </c>
+      <c r="G26">
+        <f>角色!$E$11</f>
+      </c>
+      <c r="H26">
+        <f>角色标签数据!$E$11</f>
+      </c>
+      <c r="I26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>289</v>
+      </c>
+      <c r="F27" t="s">
+        <v>383</v>
+      </c>
+      <c r="G27">
+        <f>角色!$E$11</f>
+      </c>
+      <c r="H27">
+        <f>角色标签数据!$E$15</f>
+      </c>
+      <c r="I27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>289</v>
+      </c>
+      <c r="F28" t="s">
+        <v>383</v>
+      </c>
+      <c r="G28">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="H28">
+        <f>角色标签数据!$E$10</f>
+      </c>
+      <c r="I28" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>289</v>
+      </c>
+      <c r="F29" t="s">
+        <v>383</v>
+      </c>
+      <c r="G29">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="H29">
+        <f>角色标签数据!$E$13</f>
+      </c>
+      <c r="I29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>289</v>
+      </c>
+      <c r="F30" t="s">
+        <v>383</v>
+      </c>
+      <c r="G30">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="H30">
+        <f>角色标签数据!$E$14</f>
+      </c>
+      <c r="I30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G31">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="H31">
+        <f>角色标签数据!$E$18</f>
+      </c>
+      <c r="I31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>289</v>
+      </c>
+      <c r="F32" t="s">
+        <v>383</v>
+      </c>
+      <c r="G32">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="H32">
+        <f>角色标签数据!$E$10</f>
+      </c>
+      <c r="I32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>289</v>
+      </c>
+      <c r="F33" t="s">
+        <v>383</v>
+      </c>
+      <c r="G33">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="H33">
+        <f>角色标签数据!$E$13</f>
+      </c>
+      <c r="I33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>289</v>
+      </c>
+      <c r="F34" t="s">
+        <v>383</v>
+      </c>
+      <c r="G34">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="H34">
+        <f>角色标签数据!$E$16</f>
+      </c>
+      <c r="I34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>289</v>
+      </c>
+      <c r="F35" t="s">
+        <v>383</v>
+      </c>
+      <c r="G35">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="H35">
+        <f>角色标签数据!$E$19</f>
+      </c>
+      <c r="I35" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="423">
   <si>
     <r>
       <rPr>
@@ -2077,6 +2077,36 @@
     <t>iam_menu-8</t>
   </si>
   <si>
+    <t>choerodon.code.organization</t>
+  </si>
+  <si>
+    <t>组织层通用</t>
+  </si>
+  <si>
+    <t>组织层知识库</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>iam_menu-9</t>
+  </si>
+  <si>
     <t>choerodon.code.project.cooperation</t>
   </si>
   <si>
@@ -2086,25 +2116,10 @@
     <t>XZ</t>
   </si>
   <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>api</t>
-  </si>
-  <si>
-    <t>iam_menu-9</t>
+    <t>iam_menu-10</t>
   </si>
   <si>
     <t>choerodon.code.project.cooperation.knowledge</t>
@@ -2131,7 +2146,7 @@
     <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge</t>
   </si>
   <si>
-    <t>iam_menu-10</t>
+    <t>iam_menu-11</t>
   </si>
   <si>
     <t>choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.deletebase</t>
@@ -2140,9 +2155,6 @@
     <t>删除知识库</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>ps</t>
   </si>
   <si>
@@ -2152,7 +2164,7 @@
     <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge|choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.deletebase</t>
   </si>
   <si>
-    <t>iam_menu-11</t>
+    <t>iam_menu-12</t>
   </si>
   <si>
     <t>choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.page</t>
@@ -2164,7 +2176,7 @@
     <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge|choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.page</t>
   </si>
   <si>
-    <t>iam_menu-12</t>
+    <t>iam_menu-13</t>
   </si>
   <si>
     <t>choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.updatebase</t>
@@ -2176,7 +2188,7 @@
     <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge|choerodon.code.project.cooperation.knowledge.ps.choerodon.code.project.cooperation.knowledge.updatebase</t>
   </si>
   <si>
-    <t>iam_menu-13</t>
+    <t>iam_menu-14</t>
   </si>
   <si>
     <t>choerodon.code.project.cooperation.knowledge.ps.default</t>
@@ -2188,7 +2200,7 @@
     <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge|choerodon.code.project.cooperation.knowledge.ps.default</t>
   </si>
   <si>
-    <t>iam_menu-14</t>
+    <t>iam_menu-15</t>
   </si>
   <si>
     <t>choerodon.code.project.cooperation.knowledge.ps.doc.delete</t>
@@ -2200,7 +2212,7 @@
     <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.knowledge|choerodon.code.project.cooperation.knowledge.ps.doc.delete</t>
   </si>
   <si>
-    <t>iam_menu-15</t>
+    <t>iam_menu-16</t>
   </si>
   <si>
     <t>choerodon.code.project.cooperation.knowledge.ps.page_comment.delete</t>
@@ -2245,247 +2257,265 @@
     <t>iam_menu_permission-11</t>
   </si>
   <si>
+    <t>knowledgebase-service.page-attachment-project.uploadForAddress</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-12</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-project.fullTextSearch</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-13</t>
+  </si>
+  <si>
     <t>knowledgebase-service.project-operate.pageProjectInfo</t>
   </si>
   <si>
-    <t>iam_menu_permission-12</t>
+    <t>iam_menu_permission-14</t>
   </si>
   <si>
     <t>knowledgebase-service.recycle-project.deleteWorkSpaceAndPage</t>
   </si>
   <si>
-    <t>iam_menu_permission-13</t>
+    <t>iam_menu_permission-15</t>
   </si>
   <si>
     <t>knowledgebase-service.recycle-project.pageByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-14</t>
+    <t>iam_menu_permission-16</t>
   </si>
   <si>
     <t>knowledgebase-service.recycle-project.restoreWorkSpaceAndPage</t>
   </si>
   <si>
-    <t>iam_menu_permission-15</t>
+    <t>iam_menu_permission-17</t>
   </si>
   <si>
     <t>knowledgebase-service.work-space-project.belongToBaseDelete</t>
   </si>
   <si>
-    <t>iam_menu_permission-16</t>
+    <t>iam_menu_permission-18</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-share-project.updateShare</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-19</t>
   </si>
   <si>
     <t>knowledgebase-service.knowledge-base.updateKnowledgeBase</t>
   </si>
   <si>
-    <t>iam_menu_permission-17</t>
+    <t>iam_menu_permission-20</t>
   </si>
   <si>
     <t>knowledgebase-service.document-template.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-18</t>
+    <t>iam_menu_permission-21</t>
   </si>
   <si>
     <t>knowledgebase-service.document-template.listTemplate</t>
   </si>
   <si>
-    <t>iam_menu_permission-19</t>
+    <t>iam_menu_permission-22</t>
   </si>
   <si>
     <t>knowledgebase-service.document-template.removeWorkSpaceAndPage</t>
   </si>
   <si>
-    <t>iam_menu_permission-20</t>
+    <t>iam_menu_permission-23</t>
   </si>
   <si>
     <t>knowledgebase-service.document-template.updateTemplate</t>
   </si>
   <si>
-    <t>iam_menu_permission-21</t>
+    <t>iam_menu_permission-24</t>
   </si>
   <si>
     <t>knowledgebase-service.document-template.uploadAttach</t>
   </si>
   <si>
-    <t>iam_menu_permission-22</t>
+    <t>iam_menu_permission-25</t>
   </si>
   <si>
     <t>knowledgebase-service.page-attachment-project.batchDelete</t>
   </si>
   <si>
-    <t>iam_menu_permission-23</t>
+    <t>iam_menu_permission-26</t>
   </si>
   <si>
     <t>knowledgebase-service.page-attachment-project.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-24</t>
+    <t>iam_menu_permission-27</t>
   </si>
   <si>
     <t>knowledgebase-service.page-attachment-project.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-25</t>
+    <t>iam_menu_permission-28</t>
   </si>
   <si>
     <t>knowledgebase-service.page-comment-project.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-26</t>
+    <t>iam_menu_permission-29</t>
   </si>
   <si>
     <t>knowledgebase-service.page-comment-project.deleteComment</t>
   </si>
   <si>
-    <t>iam_menu_permission-27</t>
+    <t>iam_menu_permission-30</t>
   </si>
   <si>
     <t>knowledgebase-service.page-comment-project.deleteMyComment</t>
   </si>
   <si>
-    <t>iam_menu_permission-28</t>
+    <t>iam_menu_permission-31</t>
   </si>
   <si>
     <t>knowledgebase-service.page-comment-project.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-29</t>
+    <t>iam_menu_permission-32</t>
   </si>
   <si>
     <t>knowledgebase-service.page-log-project.listByPageId</t>
   </si>
   <si>
-    <t>iam_menu_permission-30</t>
+    <t>iam_menu_permission-33</t>
   </si>
   <si>
     <t>knowledgebase-service.page-project.createPageByImport</t>
   </si>
   <si>
-    <t>iam_menu_permission-31</t>
+    <t>iam_menu_permission-34</t>
   </si>
   <si>
     <t>knowledgebase-service.page-project.createPageByTemplate</t>
   </si>
   <si>
-    <t>iam_menu_permission-32</t>
+    <t>iam_menu_permission-35</t>
   </si>
   <si>
     <t>knowledgebase-service.page-project.exportMd2Pdf</t>
   </si>
   <si>
-    <t>iam_menu_permission-33</t>
+    <t>iam_menu_permission-36</t>
   </si>
   <si>
     <t>knowledgebase-service.page-project.importDocx2Md</t>
   </si>
   <si>
-    <t>iam_menu_permission-34</t>
+    <t>iam_menu_permission-37</t>
   </si>
   <si>
     <t>knowledgebase-service.page-version-project.compareVersion</t>
   </si>
   <si>
-    <t>iam_menu_permission-35</t>
+    <t>iam_menu_permission-38</t>
   </si>
   <si>
     <t>knowledgebase-service.page-version-project.listQuery</t>
   </si>
   <si>
-    <t>iam_menu_permission-36</t>
+    <t>iam_menu_permission-39</t>
   </si>
   <si>
     <t>knowledgebase-service.page-version-project.queryById</t>
   </si>
   <si>
-    <t>iam_menu_permission-37</t>
+    <t>iam_menu_permission-40</t>
   </si>
   <si>
     <t>knowledgebase-service.page-version-project.rollbackVersion</t>
   </si>
   <si>
-    <t>iam_menu_permission-38</t>
+    <t>iam_menu_permission-41</t>
   </si>
   <si>
     <t>knowledgebase-service.user-setting-project.createOrUpdate</t>
   </si>
   <si>
-    <t>iam_menu_permission-39</t>
+    <t>iam_menu_permission-42</t>
   </si>
   <si>
     <t>knowledgebase-service.work-space-organization.moveWorkSpace</t>
   </si>
   <si>
-    <t>iam_menu_permission-40</t>
+    <t>iam_menu_permission-43</t>
   </si>
   <si>
     <t>knowledgebase-service.work-space-project.clonePage</t>
   </si>
   <si>
-    <t>iam_menu_permission-41</t>
+    <t>iam_menu_permission-44</t>
   </si>
   <si>
     <t>knowledgebase-service.work-space-project.createWorkSpaceAndPage</t>
   </si>
   <si>
-    <t>iam_menu_permission-42</t>
+    <t>iam_menu_permission-45</t>
   </si>
   <si>
     <t>knowledgebase-service.work-space-project.moveWorkSpace</t>
   </si>
   <si>
-    <t>iam_menu_permission-43</t>
+    <t>iam_menu_permission-46</t>
   </si>
   <si>
     <t>knowledgebase-service.work-space-project.queryAllSpaceByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-44</t>
+    <t>iam_menu_permission-47</t>
   </si>
   <si>
     <t>knowledgebase-service.work-space-project.queryAllTreeList</t>
   </si>
   <si>
-    <t>iam_menu_permission-45</t>
+    <t>iam_menu_permission-48</t>
   </si>
   <si>
     <t>knowledgebase-service.work-space-project.queryWorkSpaceInfo</t>
   </si>
   <si>
-    <t>iam_menu_permission-46</t>
+    <t>iam_menu_permission-49</t>
   </si>
   <si>
     <t>knowledgebase-service.work-space-project.recentUpdateList</t>
   </si>
   <si>
-    <t>iam_menu_permission-47</t>
+    <t>iam_menu_permission-50</t>
   </si>
   <si>
     <t>knowledgebase-service.work-space-project.removeWorkSpaceAndPageByMyWorkSpace</t>
   </si>
   <si>
-    <t>iam_menu_permission-48</t>
+    <t>iam_menu_permission-51</t>
   </si>
   <si>
     <t>knowledgebase-service.work-space-project.updateWorkSpaceAndPage</t>
   </si>
   <si>
-    <t>iam_menu_permission-49</t>
+    <t>iam_menu_permission-52</t>
   </si>
   <si>
     <t>knowledgebase-service.work-space-share-project.queryShare</t>
   </si>
   <si>
-    <t>iam_menu_permission-50</t>
+    <t>iam_menu_permission-53</t>
   </si>
   <si>
     <t>knowledgebase-service.knowledge-base.removeKnowledgeBase</t>
   </si>
   <si>
-    <t>iam_menu_permission-51</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-52</t>
+    <t>iam_menu_permission-54</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-55</t>
   </si>
   <si>
     <t>knowledgebase-service.work-space-project.removeWorkSpaceAndPage</t>
@@ -4452,7 +4482,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4571,37 +4601,40 @@
         <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="s">
         <v>79</v>
       </c>
-      <c r="K8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" t="s">
-        <v>83</v>
-      </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s">
         <v>76</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s">
         <v>84</v>
@@ -4627,37 +4660,31 @@
         <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9">
-        <f>菜单SAAS版!$E$8</f>
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
       </c>
       <c r="L9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" t="s">
         <v>89</v>
       </c>
-      <c r="M9" t="s">
-        <v>90</v>
-      </c>
       <c r="N9" t="s">
         <v>83</v>
       </c>
-      <c r="O9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9" t="s">
-        <v>92</v>
-      </c>
       <c r="Q9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="T9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s">
         <v>84</v>
@@ -4668,46 +4695,52 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10">
         <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="L10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" t="s">
         <v>98</v>
       </c>
-      <c r="N10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" t="s">
-        <v>100</v>
-      </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s">
         <v>84</v>
@@ -4718,46 +4751,46 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
         <v>101</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="L11" t="s">
         <v>102</v>
       </c>
-      <c r="G11" t="s">
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" t="s">
         <v>103</v>
       </c>
-      <c r="H11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11">
-        <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="L11" t="s">
-        <v>98</v>
-      </c>
-      <c r="N11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O11" t="s">
-        <v>99</v>
-      </c>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s">
         <v>104</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s">
         <v>84</v>
@@ -4780,34 +4813,34 @@
         <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="L12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N12" t="s">
         <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s">
         <v>108</v>
       </c>
       <c r="T12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s">
         <v>84</v>
@@ -4829,32 +4862,35 @@
       <c r="H13" t="s">
         <v>111</v>
       </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="L13" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="N13" t="s">
         <v>83</v>
       </c>
+      <c r="O13" t="s">
+        <v>103</v>
+      </c>
       <c r="Q13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s">
         <v>112</v>
       </c>
       <c r="T13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s">
         <v>84</v>
@@ -4876,35 +4912,32 @@
       <c r="H14" t="s">
         <v>115</v>
       </c>
-      <c r="I14" t="s">
-        <v>97</v>
-      </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="L14" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="M14" t="s">
+        <v>81</v>
       </c>
       <c r="N14" t="s">
         <v>83</v>
       </c>
-      <c r="O14" t="s">
-        <v>99</v>
-      </c>
       <c r="Q14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s">
         <v>116</v>
       </c>
       <c r="T14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s">
         <v>84</v>
@@ -4927,39 +4960,89 @@
         <v>119</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K15">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="L15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N15" t="s">
         <v>83</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s">
         <v>120</v>
       </c>
       <c r="T15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s">
         <v>84</v>
       </c>
       <c r="X15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="L16" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>81</v>
+      </c>
+      <c r="R16" t="s">
+        <v>81</v>
+      </c>
+      <c r="S16" t="s">
+        <v>124</v>
+      </c>
+      <c r="T16" t="s">
+        <v>81</v>
+      </c>
+      <c r="V16" t="s">
+        <v>84</v>
+      </c>
+      <c r="X16" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4970,7 +5053,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5009,514 +5092,547 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s" s="73">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s" s="74">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="75">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G7" t="s" s="76">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F8">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F9">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F10">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F11">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F12">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F13">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F14">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F15">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F16">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G16" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F17">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F18">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F19">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F20">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F21">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F22">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F23">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F24">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F25">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G25" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F26">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F27">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G27" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F28">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G28" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F29">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G29" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F30">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F31">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F32">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G32" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F33">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G33" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F34">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G34" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F35">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G35" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F36">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G36" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F37">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G37" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F38">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G38" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F39">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G39" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F40">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G40" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F41">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G41" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F42">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G42" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F43">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G43" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F44">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G44" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F45">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G45" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F46">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G46" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F47">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G47" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F48">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G48" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F49">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G49" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F50">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G50" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F51">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G51" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F52">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="G52" t="s">
-        <v>213</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>219</v>
+      </c>
+      <c r="F53">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="G53" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>221</v>
+      </c>
+      <c r="F54">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="G54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>222</v>
+      </c>
+      <c r="F55">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="G55" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5526,7 +5642,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5565,66 +5681,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s" s="77">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s" s="78">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="79">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="G7" t="s" s="80">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="I7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="J7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="L7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="N7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="O7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F8" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G8" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J8" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K8" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -5638,25 +5754,25 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F9" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J9" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="K9" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="M9" t="s">
         <v>83</v>
@@ -5670,19 +5786,19 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F10" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G10" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="M10" t="s">
         <v>83</v>
@@ -5696,25 +5812,25 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" t="s">
         <v>238</v>
       </c>
-      <c r="G11" t="s">
-        <v>228</v>
-      </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
         <v>83</v>
@@ -5722,25 +5838,25 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="F12" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G12" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="J12" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="K12" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M12" t="s">
         <v>83</v>
@@ -5754,28 +5870,28 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F13" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G13" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J13" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O13" t="s">
         <v>83</v>
@@ -5783,28 +5899,28 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F14" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="G14" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J14" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O14" t="s">
         <v>83</v>
@@ -5812,28 +5928,28 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F15" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="G15" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J15" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O15" t="s">
         <v>83</v>
@@ -5841,28 +5957,28 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F16" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G16" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J16" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O16" t="s">
         <v>83</v>
@@ -5870,31 +5986,31 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="F17" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="G17" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J17" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="K17" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O17" t="s">
         <v>83</v>
@@ -5902,31 +6018,31 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F18" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="G18" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J18" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="K18" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O18" t="s">
         <v>83</v>
@@ -5934,25 +6050,25 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F19" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="G19" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J19" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="K19" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="M19" t="s">
         <v>83</v>
@@ -5966,25 +6082,25 @@
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F20" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="G20" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H20" t="s">
         <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="M20" t="s">
         <v>83</v>
       </c>
       <c r="N20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O20" t="s">
         <v>83</v>
@@ -5992,31 +6108,31 @@
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="F21" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="G21" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="J21" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="K21" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="M21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O21" t="s">
         <v>83</v>
@@ -6024,31 +6140,31 @@
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F22" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="G22" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H22" t="s">
         <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="J22" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="K22" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="M22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O22" t="s">
         <v>83</v>
@@ -6056,31 +6172,31 @@
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F23" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="G23" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H23" t="s">
         <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="K23" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="M23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O23" t="s">
         <v>83</v>
@@ -6088,25 +6204,25 @@
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="F24" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="G24" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H24" t="s">
         <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O24" t="s">
         <v>83</v>
@@ -6114,28 +6230,28 @@
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F25" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="G25" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H25" t="s">
         <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="J25" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" t="s">
         <v>83</v>
@@ -6143,28 +6259,28 @@
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F26" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G26" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H26" t="s">
         <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="M26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" t="s">
         <v>83</v>
@@ -6178,297 +6294,365 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s" s="81">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E28" t="s" s="82">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="F28" t="s" s="83">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G28" t="s" s="84">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="H28" t="s" s="85">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="I28" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F29" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G29">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H29">
         <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I29" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G30">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H30">
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I30" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F31" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G31">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H31">
         <f>菜单标签数据!$E$15</f>
       </c>
       <c r="I31" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F32" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G32">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H32">
         <f>菜单标签数据!$E$16</f>
       </c>
       <c r="I32" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G33">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H33">
-        <f>菜单标签数据!$E$21</f>
+        <f>菜单标签数据!$E$17</f>
       </c>
       <c r="I33" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F34" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G34">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H34">
-        <f>菜单标签数据!$E$24</f>
+        <f>菜单标签数据!$E$21</f>
       </c>
       <c r="I34" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F35" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G35">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H35">
-        <f>菜单标签数据!$E$25</f>
+        <f>菜单标签数据!$E$24</f>
       </c>
       <c r="I35" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F36" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G36">
         <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H36">
-        <f>菜单标签数据!$E$13</f>
+        <f>菜单标签数据!$E$25</f>
       </c>
       <c r="I36" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F37" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G37">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="H37">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I37" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F38" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G38">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="H38">
-        <f>菜单标签数据!$E$15</f>
+        <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I38" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F39" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G39">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="H39">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单标签数据!$E$15</f>
       </c>
       <c r="I39" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F40" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G40">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="H40">
-        <f>菜单标签数据!$E$25</f>
+        <f>菜单标签数据!$E$17</f>
       </c>
       <c r="I40" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F41" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G41">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="H41">
-        <f>菜单标签数据!$E$13</f>
+        <f>菜单标签数据!$E$25</f>
       </c>
       <c r="I41" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F42" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G42">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H42">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单标签数据!$E$13</f>
       </c>
       <c r="I42" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F43" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G43">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H43">
-        <f>菜单标签数据!$E$15</f>
+        <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I43" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G44">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H44">
+        <f>菜单标签数据!$E$15</f>
+      </c>
+      <c r="I44" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>299</v>
+      </c>
+      <c r="F45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G45">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H45">
         <f>菜单标签数据!$E$17</f>
       </c>
-      <c r="I44" t="s">
-        <v>291</v>
+      <c r="I45" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>299</v>
+      </c>
+      <c r="F46" t="s">
+        <v>238</v>
+      </c>
+      <c r="G46">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H46">
+        <f>菜单标签数据!$E$20</f>
+      </c>
+      <c r="I46" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>299</v>
+      </c>
+      <c r="F47" t="s">
+        <v>238</v>
+      </c>
+      <c r="G47">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H47">
+        <f>菜单标签数据!$E$24</f>
+      </c>
+      <c r="I47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>299</v>
+      </c>
+      <c r="F48" t="s">
+        <v>238</v>
+      </c>
+      <c r="G48">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H48">
+        <f>菜单标签数据!$E$25</f>
+      </c>
+      <c r="I48" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -6517,10 +6701,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s" s="86">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E7" t="s" s="87">
         <v>54</v>
@@ -6535,96 +6719,96 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="J7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="K7" t="s" s="89">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="M7" t="s" s="90">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="N7" t="s" s="91">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="O7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="P7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="Q7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="R7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="S7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="T7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="W7" t="s" s="92">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="X7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="Y7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F8" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="G8" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="H8" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="I8" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="J8" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" t="s">
         <v>80</v>
       </c>
-      <c r="L8" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" t="s">
-        <v>79</v>
-      </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P8" t="s">
         <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s">
         <v>83</v>
@@ -6633,57 +6817,57 @@
         <v>83</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="V8" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="W8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="F9" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G9" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="H9" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="I9" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
         <v>80</v>
       </c>
-      <c r="L9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>79</v>
-      </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s">
         <v>83</v>
       </c>
       <c r="Q9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R9" t="s">
         <v>83</v>
@@ -6692,54 +6876,54 @@
         <v>83</v>
       </c>
       <c r="T9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="V9" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="W9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="F10" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="G10" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="H10" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M10">
         <f>角色!$E$9</f>
       </c>
       <c r="N10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s">
         <v>83</v>
       </c>
       <c r="Q10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R10" t="s">
         <v>83</v>
@@ -6748,60 +6932,60 @@
         <v>83</v>
       </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="V10" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="W10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="Y10" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="F11" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="G11" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="H11" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M11">
         <f>角色!$E$9</f>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s">
         <v>83</v>
       </c>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R11" t="s">
         <v>83</v>
@@ -6810,60 +6994,60 @@
         <v>83</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="V11" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="W11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="Y11" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F12" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="G12" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="H12" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12">
         <f>角色!$E$9</f>
       </c>
       <c r="N12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
       </c>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s">
         <v>83</v>
@@ -6872,60 +7056,60 @@
         <v>83</v>
       </c>
       <c r="T12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="V12" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="W12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Y12" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F13" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="G13" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="H13" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13">
         <f>角色!$E$9</f>
       </c>
       <c r="N13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P13" t="s">
         <v>83</v>
       </c>
       <c r="Q13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R13" t="s">
         <v>83</v>
@@ -6934,60 +7118,60 @@
         <v>83</v>
       </c>
       <c r="T13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="V13" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="W13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="Y13" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F14" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="G14" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="H14" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="J14" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="K14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" t="s">
         <v>80</v>
       </c>
-      <c r="L14" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14" t="s">
-        <v>79</v>
-      </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P14" t="s">
         <v>83</v>
       </c>
       <c r="Q14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R14" t="s">
         <v>83</v>
@@ -6996,13 +7180,13 @@
         <v>83</v>
       </c>
       <c r="T14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="V14" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16">
@@ -7013,368 +7197,368 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D16" t="s" s="93">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="E16" t="s" s="94">
         <v>54</v>
       </c>
       <c r="F16" t="s" s="95">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="G16" t="s" s="96">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="H16" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="I16" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="J16" t="s" s="97">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F17">
         <f>角色!$E$10</f>
       </c>
       <c r="G17">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H17" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I17" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J17" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="F18">
         <f>角色!$E$10</f>
       </c>
       <c r="G18">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H18" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I18" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J18" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="F19">
         <f>角色!$E$10</f>
       </c>
       <c r="G19">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="H19" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I19" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J19" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="F20">
         <f>角色!$E$10</f>
       </c>
       <c r="G20">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="H20" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I20" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J20" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F21">
         <f>角色!$E$10</f>
       </c>
       <c r="G21">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="H21" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I21" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J21" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="F22">
         <f>角色!$E$10</f>
       </c>
       <c r="G22">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H22" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I22" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J22" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F23">
         <f>角色!$E$12</f>
       </c>
       <c r="G23">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H23" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I23" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J23" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="F24">
         <f>角色!$E$12</f>
       </c>
       <c r="G24">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H24" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I24" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J24" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F25">
         <f>角色!$E$12</f>
       </c>
       <c r="G25">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="H25" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I25" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J25" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="F26">
         <f>角色!$E$12</f>
       </c>
       <c r="G26">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="H26" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I26" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J26" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F27">
         <f>角色!$E$12</f>
       </c>
       <c r="G27">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="H27" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I27" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J27" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F28">
         <f>角色!$E$12</f>
       </c>
       <c r="G28">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H28" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I28" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J28" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="F29">
         <f>角色!$E$13</f>
       </c>
       <c r="G29">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H29" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I29" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J29" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F30">
         <f>角色!$E$13</f>
       </c>
       <c r="G30">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H30" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I30" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J30" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F31">
         <f>角色!$E$13</f>
       </c>
       <c r="G31">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="H31" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I31" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J31" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F32">
         <f>角色!$E$13</f>
       </c>
       <c r="G32">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="H32" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I32" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J32" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F33">
         <f>角色!$E$13</f>
       </c>
       <c r="G33">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H33" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="I33" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J33" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -7423,69 +7607,69 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s" s="98">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s" s="99">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="100">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="G7" t="s" s="101">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="I7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="J7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="L7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="N7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="O7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F8" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="G8" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J8" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="K8" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
         <v>83</v>
@@ -7496,25 +7680,25 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F9" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="G9" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="J9" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s">
         <v>83</v>
@@ -7525,252 +7709,252 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F10" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="G10" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J10" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="K10" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
         <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F11" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="G11" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J11" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="K11" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s">
         <v>83</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" t="s">
+        <v>403</v>
+      </c>
+      <c r="G12" t="s">
+        <v>393</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s">
         <v>239</v>
       </c>
-      <c r="F12" t="s">
-        <v>393</v>
-      </c>
-      <c r="G12" t="s">
-        <v>383</v>
-      </c>
-      <c r="H12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" t="s">
-        <v>229</v>
-      </c>
       <c r="J12" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K12" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N12" t="s">
         <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F13" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="G13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J13" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="K13" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s">
         <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F14" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="G14" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J14" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="K14" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N14" t="s">
         <v>83</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F15" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="G15" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J15" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="K15" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
         <v>83</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F16" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="G16" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J16" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="K16" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N16" t="s">
         <v>83</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="F17" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="G17" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J17" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="K17" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
         <v>83</v>
@@ -7781,28 +7965,28 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F18" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="G18" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J18" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="K18" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
         <v>83</v>
@@ -7813,28 +7997,28 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F19" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="G19" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J19" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K19" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N19" t="s">
         <v>83</v>
@@ -7851,33 +8035,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D21" t="s" s="102">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E21" t="s" s="103">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="F21" t="s" s="104">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G21" t="s" s="105">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="H21" t="s" s="106">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="I21" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F22" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G22">
         <f>角色!$E$10</f>
@@ -7886,15 +8070,15 @@
         <f>角色标签数据!$E$10</f>
       </c>
       <c r="I22" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F23" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G23">
         <f>角色!$E$10</f>
@@ -7903,15 +8087,15 @@
         <f>角色标签数据!$E$11</f>
       </c>
       <c r="I23" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F24" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G24">
         <f>角色!$E$10</f>
@@ -7920,15 +8104,15 @@
         <f>角色标签数据!$E$12</f>
       </c>
       <c r="I24" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F25" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G25">
         <f>角色!$E$11</f>
@@ -7937,15 +8121,15 @@
         <f>角色标签数据!$E$10</f>
       </c>
       <c r="I25" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F26" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G26">
         <f>角色!$E$11</f>
@@ -7954,15 +8138,15 @@
         <f>角色标签数据!$E$11</f>
       </c>
       <c r="I26" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F27" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G27">
         <f>角色!$E$11</f>
@@ -7971,15 +8155,15 @@
         <f>角色标签数据!$E$15</f>
       </c>
       <c r="I27" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F28" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G28">
         <f>角色!$E$12</f>
@@ -7988,15 +8172,15 @@
         <f>角色标签数据!$E$10</f>
       </c>
       <c r="I28" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F29" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G29">
         <f>角色!$E$12</f>
@@ -8005,15 +8189,15 @@
         <f>角色标签数据!$E$13</f>
       </c>
       <c r="I29" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F30" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G30">
         <f>角色!$E$12</f>
@@ -8022,15 +8206,15 @@
         <f>角色标签数据!$E$14</f>
       </c>
       <c r="I30" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F31" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G31">
         <f>角色!$E$12</f>
@@ -8039,15 +8223,15 @@
         <f>角色标签数据!$E$18</f>
       </c>
       <c r="I31" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F32" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G32">
         <f>角色!$E$13</f>
@@ -8056,15 +8240,15 @@
         <f>角色标签数据!$E$10</f>
       </c>
       <c r="I32" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F33" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G33">
         <f>角色!$E$13</f>
@@ -8073,15 +8257,15 @@
         <f>角色标签数据!$E$13</f>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F34" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G34">
         <f>角色!$E$13</f>
@@ -8090,15 +8274,15 @@
         <f>角色标签数据!$E$16</f>
       </c>
       <c r="I34" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F35" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G35">
         <f>角色!$E$13</f>
@@ -8107,7 +8291,7 @@
         <f>角色标签数据!$E$19</f>
       </c>
       <c r="I35" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
